--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>2.60619674735193</v>
       </c>
       <c r="C2">
-        <v>0.4801234280139681</v>
+        <v>0.4801234280143944</v>
       </c>
       <c r="D2">
-        <v>0.3341258234847686</v>
+        <v>0.3341258234845981</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.510348959429109</v>
+        <v>6.510348959429137</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.284798040196776</v>
+        <v>0.2847980401967263</v>
       </c>
       <c r="L2">
-        <v>0.8717532499418823</v>
+        <v>0.8717532499418397</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.226289217409487</v>
+        <v>2.226289217409715</v>
       </c>
       <c r="C3">
-        <v>0.4121530417147028</v>
+        <v>0.4121530417149302</v>
       </c>
       <c r="D3">
-        <v>0.2947505837864099</v>
+        <v>0.2947505837866373</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2463089215349896</v>
+        <v>0.2463089215349541</v>
       </c>
       <c r="L3">
         <v>0.7479314857397412</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.99954597192189</v>
+        <v>1.999545971921918</v>
       </c>
       <c r="C4">
-        <v>0.3715849521796031</v>
+        <v>0.371584952179262</v>
       </c>
       <c r="D4">
-        <v>0.2712278979877709</v>
+        <v>0.2712278979877993</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.190703667465414</v>
+        <v>5.190703667465357</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2233215161205067</v>
+        <v>0.2233215161204996</v>
       </c>
       <c r="L4">
-        <v>0.6740069733529239</v>
+        <v>0.6740069733529026</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90853123728877</v>
+        <v>1.908531237289111</v>
       </c>
       <c r="C5">
         <v>0.3552922422937002</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.992426615922682</v>
+        <v>4.992426615922739</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2140921527320216</v>
+        <v>0.2140921527319719</v>
       </c>
       <c r="L5">
-        <v>0.644331178168855</v>
+        <v>0.6443311781688408</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.893495085393766</v>
+        <v>1.893495085393738</v>
       </c>
       <c r="C6">
-        <v>0.3525998405679616</v>
+        <v>0.3525998405676489</v>
       </c>
       <c r="D6">
-        <v>0.2602177529150538</v>
+        <v>0.2602177529148548</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.212567319595756</v>
+        <v>0.2125673195957987</v>
       </c>
       <c r="L6">
         <v>0.6394285031476983</v>
@@ -605,16 +605,16 @@
         <v>1.998313222248811</v>
       </c>
       <c r="C7">
-        <v>0.371364321310665</v>
+        <v>0.3713643213106366</v>
       </c>
       <c r="D7">
-        <v>0.2710999486561576</v>
+        <v>0.2710999486559587</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.188018627137836</v>
+        <v>5.188018627137893</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2231965159298923</v>
+        <v>0.2231965159298781</v>
       </c>
       <c r="L7">
-        <v>0.6736050355402696</v>
+        <v>0.6736050355402483</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473687386487086</v>
+        <v>2.4736873864872</v>
       </c>
       <c r="C8">
-        <v>0.4564103782664972</v>
+        <v>0.4564103782661562</v>
       </c>
       <c r="D8">
-        <v>0.3203959460154948</v>
+        <v>0.3203959460156369</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.222386897707594</v>
+        <v>6.222386897707651</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2713777411249012</v>
+        <v>0.271377741124887</v>
       </c>
       <c r="L8">
-        <v>0.8285720517291679</v>
+        <v>0.8285720517291608</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.471113009106432</v>
+        <v>3.471113009106489</v>
       </c>
       <c r="C9">
         <v>0.6353213900309242</v>
       </c>
       <c r="D9">
-        <v>0.4236946137259849</v>
+        <v>0.4236946137262123</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3722368710797213</v>
+        <v>0.3722368710797284</v>
       </c>
       <c r="L9">
-        <v>1.153336577931427</v>
+        <v>1.153336577931441</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.266336094035353</v>
+        <v>4.266336094035069</v>
       </c>
       <c r="C10">
-        <v>0.7790706116965112</v>
+        <v>0.7790706116960564</v>
       </c>
       <c r="D10">
-        <v>0.5060356634544974</v>
+        <v>0.5060356634547247</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.10431009327729</v>
+        <v>10.10431009327732</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4523159782159425</v>
+        <v>0.4523159782159709</v>
       </c>
       <c r="L10">
-        <v>1.411678088179599</v>
+        <v>1.411678088179627</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.648165396461422</v>
+        <v>4.648165396461309</v>
       </c>
       <c r="C11">
-        <v>0.8485688081667888</v>
+        <v>0.8485688081666467</v>
       </c>
       <c r="D11">
-        <v>0.5455803701799766</v>
+        <v>0.5455803701798629</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.92709063477236</v>
+        <v>10.92709063477258</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4906358194370242</v>
+        <v>0.4906358194369673</v>
       </c>
       <c r="L11">
-        <v>1.535489831559445</v>
+        <v>1.53548983155946</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.796336715396365</v>
+        <v>4.796336715396421</v>
       </c>
       <c r="C12">
-        <v>0.875631400946304</v>
+        <v>0.8756314009458777</v>
       </c>
       <c r="D12">
-        <v>0.5609278761331211</v>
+        <v>0.5609278761334053</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.24596205346484</v>
+        <v>11.24596205346461</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5054809245528276</v>
+        <v>0.5054809245528702</v>
       </c>
       <c r="L12">
-        <v>1.583491009376431</v>
+        <v>1.583491009376502</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.764253343784901</v>
+        <v>4.764253343784958</v>
       </c>
       <c r="C13">
-        <v>0.8697669799913683</v>
+        <v>0.8697669799912546</v>
       </c>
       <c r="D13">
-        <v>0.5576046036144362</v>
+        <v>0.5576046036143225</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.17693715264812</v>
+        <v>11.17693715264852</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0.5022677636246939</v>
       </c>
       <c r="L13">
-        <v>1.57309956166327</v>
+        <v>1.573099561663255</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660279233775327</v>
+        <v>4.660279233775384</v>
       </c>
       <c r="C14">
-        <v>0.8507793111844251</v>
+        <v>0.8507793111843682</v>
       </c>
       <c r="D14">
-        <v>0.5468350734662977</v>
+        <v>0.546835073466525</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.95316897051703</v>
+        <v>10.95316897051714</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4918500322082764</v>
+        <v>0.4918500322082551</v>
       </c>
       <c r="L14">
-        <v>1.539415161885515</v>
+        <v>1.539415161885501</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.597081694560416</v>
+        <v>4.597081694560359</v>
       </c>
       <c r="C15">
-        <v>0.8392510752072155</v>
+        <v>0.8392510752073008</v>
       </c>
       <c r="D15">
-        <v>0.5402894033557857</v>
+        <v>0.5402894033565531</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.81710191708703</v>
+        <v>10.81710191708686</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4855144713256436</v>
+        <v>0.485514471325672</v>
       </c>
       <c r="L15">
-        <v>1.518934962185185</v>
+        <v>1.518934962185128</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.241842522873981</v>
+        <v>4.241842522873355</v>
       </c>
       <c r="C16">
-        <v>0.7746237812124264</v>
+        <v>0.774623781212</v>
       </c>
       <c r="D16">
-        <v>0.5034991818285164</v>
+        <v>0.5034991818287438</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.05147896057937</v>
+        <v>10.05147896057929</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4498547720091111</v>
+        <v>0.4498547720090684</v>
       </c>
       <c r="L16">
-        <v>1.403730360111837</v>
+        <v>1.403730360111808</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.029504585403515</v>
+        <v>4.029504585403686</v>
       </c>
       <c r="C17">
-        <v>0.7361279203032609</v>
+        <v>0.7361279203027493</v>
       </c>
       <c r="D17">
-        <v>0.4815111270609691</v>
+        <v>0.4815111270607417</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.593224650049194</v>
+        <v>9.593224650049279</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4285034660224625</v>
+        <v>0.4285034660225122</v>
       </c>
       <c r="L17">
         <v>1.334804165827038</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.909213948329239</v>
+        <v>3.909213948329125</v>
       </c>
       <c r="C18">
-        <v>0.714361510416893</v>
+        <v>0.7143615104168646</v>
       </c>
       <c r="D18">
-        <v>0.4690555015242808</v>
+        <v>0.4690555015239966</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.333421051366741</v>
+        <v>9.333421051366855</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4163963959562906</v>
+        <v>0.4163963959563048</v>
       </c>
       <c r="L18">
         <v>1.295736758284789</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.868782995080153</v>
+        <v>3.868782995080437</v>
       </c>
       <c r="C19">
-        <v>0.7070521018240754</v>
+        <v>0.7070521018235922</v>
       </c>
       <c r="D19">
-        <v>0.4648691346021963</v>
+        <v>0.4648691346023099</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.246066252047825</v>
+        <v>9.246066252048053</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.412325282428327</v>
+        <v>0.4123252824282986</v>
       </c>
       <c r="L19">
         <v>1.282602593450505</v>
@@ -1099,16 +1099,16 @@
         <v>4.051913291959806</v>
       </c>
       <c r="C20">
-        <v>0.7401860111669123</v>
+        <v>0.7401860111668839</v>
       </c>
       <c r="D20">
-        <v>0.4838315152821622</v>
+        <v>0.483831515282219</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.641607075362913</v>
+        <v>9.641607075362856</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4307579687735128</v>
+        <v>0.430757968773527</v>
       </c>
       <c r="L20">
-        <v>1.342080357700937</v>
+        <v>1.342080357700908</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.690715447525179</v>
+        <v>4.690715447525236</v>
       </c>
       <c r="C21">
-        <v>0.856334808601531</v>
+        <v>0.8563348086015594</v>
       </c>
       <c r="D21">
-        <v>0.5499875684301969</v>
+        <v>0.5499875684303959</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.4949003385912292</v>
       </c>
       <c r="L21">
-        <v>1.549276865630787</v>
+        <v>1.549276865630802</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.129527942174548</v>
+        <v>5.129527942174661</v>
       </c>
       <c r="C22">
-        <v>0.9366890298819897</v>
+        <v>0.9366890298823591</v>
       </c>
       <c r="D22">
-        <v>0.5954436882157381</v>
+        <v>0.5954436882159087</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.96213338953572</v>
+        <v>11.96213338953578</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5388086028346848</v>
+        <v>0.5388086028346919</v>
       </c>
       <c r="L22">
-        <v>1.691334071671605</v>
+        <v>1.691334071671591</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.893101634101185</v>
+        <v>4.893101634101015</v>
       </c>
       <c r="C23">
-        <v>0.8933343706842436</v>
+        <v>0.8933343706839025</v>
       </c>
       <c r="D23">
-        <v>0.570951333877133</v>
+        <v>0.5709513338772183</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.45407687121792</v>
+        <v>11.45407687121775</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5151677717003338</v>
+        <v>0.515167771700284</v>
       </c>
       <c r="L23">
-        <v>1.614824632357568</v>
+        <v>1.614824632357482</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.041776805199731</v>
+        <v>4.041776805199788</v>
       </c>
       <c r="C24">
-        <v>0.7383502213988322</v>
+        <v>0.738350221398747</v>
       </c>
       <c r="D24">
-        <v>0.4827818949259779</v>
+        <v>0.482781894926319</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.61972210355961</v>
+        <v>9.619722103559752</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4297381890618084</v>
+        <v>0.42973818906178</v>
       </c>
       <c r="L24">
-        <v>1.33878906497624</v>
+        <v>1.338789064976268</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.192206584857445</v>
+        <v>3.192206584857388</v>
       </c>
       <c r="C25">
-        <v>0.5851715569327212</v>
+        <v>0.5851715569321811</v>
       </c>
       <c r="D25">
-        <v>0.3948166417774246</v>
+        <v>0.3948166417775951</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.781929403570985</v>
+        <v>7.781929403571041</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3440747055488984</v>
+        <v>0.34407470554887</v>
       </c>
       <c r="L25">
-        <v>1.062594302417345</v>
+        <v>1.062594302417331</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -415,16 +415,16 @@
         <v>2.60619674735193</v>
       </c>
       <c r="C2">
-        <v>0.4801234280143944</v>
+        <v>0.4801234280139681</v>
       </c>
       <c r="D2">
-        <v>0.3341258234845981</v>
+        <v>0.3341258234847686</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.510348959429137</v>
+        <v>6.510348959429109</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2847980401967263</v>
+        <v>0.284798040196776</v>
       </c>
       <c r="L2">
-        <v>0.8717532499418397</v>
+        <v>0.8717532499418823</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,13 +450,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.226289217409715</v>
+        <v>2.226289217409487</v>
       </c>
       <c r="C3">
-        <v>0.4121530417149302</v>
+        <v>0.4121530417147028</v>
       </c>
       <c r="D3">
-        <v>0.2947505837866373</v>
+        <v>0.2947505837864099</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2463089215349541</v>
+        <v>0.2463089215349896</v>
       </c>
       <c r="L3">
         <v>0.7479314857397412</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.999545971921918</v>
+        <v>1.99954597192189</v>
       </c>
       <c r="C4">
-        <v>0.371584952179262</v>
+        <v>0.3715849521796031</v>
       </c>
       <c r="D4">
-        <v>0.2712278979877993</v>
+        <v>0.2712278979877709</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.190703667465357</v>
+        <v>5.190703667465414</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2233215161204996</v>
+        <v>0.2233215161205067</v>
       </c>
       <c r="L4">
-        <v>0.6740069733529026</v>
+        <v>0.6740069733529239</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908531237289111</v>
+        <v>1.90853123728877</v>
       </c>
       <c r="C5">
         <v>0.3552922422937002</v>
@@ -538,7 +538,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.992426615922739</v>
+        <v>4.992426615922682</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2140921527319719</v>
+        <v>0.2140921527320216</v>
       </c>
       <c r="L5">
-        <v>0.6443311781688408</v>
+        <v>0.644331178168855</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,13 +564,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.893495085393738</v>
+        <v>1.893495085393766</v>
       </c>
       <c r="C6">
-        <v>0.3525998405676489</v>
+        <v>0.3525998405679616</v>
       </c>
       <c r="D6">
-        <v>0.2602177529148548</v>
+        <v>0.2602177529150538</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2125673195957987</v>
+        <v>0.212567319595756</v>
       </c>
       <c r="L6">
         <v>0.6394285031476983</v>
@@ -605,16 +605,16 @@
         <v>1.998313222248811</v>
       </c>
       <c r="C7">
-        <v>0.3713643213106366</v>
+        <v>0.371364321310665</v>
       </c>
       <c r="D7">
-        <v>0.2710999486559587</v>
+        <v>0.2710999486561576</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.188018627137893</v>
+        <v>5.188018627137836</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2231965159298781</v>
+        <v>0.2231965159298923</v>
       </c>
       <c r="L7">
-        <v>0.6736050355402483</v>
+        <v>0.6736050355402696</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.4736873864872</v>
+        <v>2.473687386487086</v>
       </c>
       <c r="C8">
-        <v>0.4564103782661562</v>
+        <v>0.4564103782664972</v>
       </c>
       <c r="D8">
-        <v>0.3203959460156369</v>
+        <v>0.3203959460154948</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.222386897707651</v>
+        <v>6.222386897707594</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.271377741124887</v>
+        <v>0.2713777411249012</v>
       </c>
       <c r="L8">
-        <v>0.8285720517291608</v>
+        <v>0.8285720517291679</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,13 +678,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.471113009106489</v>
+        <v>3.471113009106432</v>
       </c>
       <c r="C9">
         <v>0.6353213900309242</v>
       </c>
       <c r="D9">
-        <v>0.4236946137262123</v>
+        <v>0.4236946137259849</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3722368710797284</v>
+        <v>0.3722368710797213</v>
       </c>
       <c r="L9">
-        <v>1.153336577931441</v>
+        <v>1.153336577931427</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.266336094035069</v>
+        <v>4.266336094035353</v>
       </c>
       <c r="C10">
-        <v>0.7790706116960564</v>
+        <v>0.7790706116965112</v>
       </c>
       <c r="D10">
-        <v>0.5060356634547247</v>
+        <v>0.5060356634544974</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.10431009327732</v>
+        <v>10.10431009327729</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4523159782159709</v>
+        <v>0.4523159782159425</v>
       </c>
       <c r="L10">
-        <v>1.411678088179627</v>
+        <v>1.411678088179599</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.648165396461309</v>
+        <v>4.648165396461422</v>
       </c>
       <c r="C11">
-        <v>0.8485688081666467</v>
+        <v>0.8485688081667888</v>
       </c>
       <c r="D11">
-        <v>0.5455803701798629</v>
+        <v>0.5455803701799766</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.92709063477258</v>
+        <v>10.92709063477236</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4906358194369673</v>
+        <v>0.4906358194370242</v>
       </c>
       <c r="L11">
-        <v>1.53548983155946</v>
+        <v>1.535489831559445</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.796336715396421</v>
+        <v>4.796336715396365</v>
       </c>
       <c r="C12">
-        <v>0.8756314009458777</v>
+        <v>0.875631400946304</v>
       </c>
       <c r="D12">
-        <v>0.5609278761334053</v>
+        <v>0.5609278761331211</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.24596205346461</v>
+        <v>11.24596205346484</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5054809245528702</v>
+        <v>0.5054809245528276</v>
       </c>
       <c r="L12">
-        <v>1.583491009376502</v>
+        <v>1.583491009376431</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.764253343784958</v>
+        <v>4.764253343784901</v>
       </c>
       <c r="C13">
-        <v>0.8697669799912546</v>
+        <v>0.8697669799913683</v>
       </c>
       <c r="D13">
-        <v>0.5576046036143225</v>
+        <v>0.5576046036144362</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.17693715264852</v>
+        <v>11.17693715264812</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0.5022677636246939</v>
       </c>
       <c r="L13">
-        <v>1.573099561663255</v>
+        <v>1.57309956166327</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660279233775384</v>
+        <v>4.660279233775327</v>
       </c>
       <c r="C14">
-        <v>0.8507793111843682</v>
+        <v>0.8507793111844251</v>
       </c>
       <c r="D14">
-        <v>0.546835073466525</v>
+        <v>0.5468350734662977</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.95316897051714</v>
+        <v>10.95316897051703</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4918500322082551</v>
+        <v>0.4918500322082764</v>
       </c>
       <c r="L14">
-        <v>1.539415161885501</v>
+        <v>1.539415161885515</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.597081694560359</v>
+        <v>4.597081694560416</v>
       </c>
       <c r="C15">
-        <v>0.8392510752073008</v>
+        <v>0.8392510752072155</v>
       </c>
       <c r="D15">
-        <v>0.5402894033565531</v>
+        <v>0.5402894033557857</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.81710191708686</v>
+        <v>10.81710191708703</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.485514471325672</v>
+        <v>0.4855144713256436</v>
       </c>
       <c r="L15">
-        <v>1.518934962185128</v>
+        <v>1.518934962185185</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.241842522873355</v>
+        <v>4.241842522873981</v>
       </c>
       <c r="C16">
-        <v>0.774623781212</v>
+        <v>0.7746237812124264</v>
       </c>
       <c r="D16">
-        <v>0.5034991818287438</v>
+        <v>0.5034991818285164</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.05147896057929</v>
+        <v>10.05147896057937</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4498547720090684</v>
+        <v>0.4498547720091111</v>
       </c>
       <c r="L16">
-        <v>1.403730360111808</v>
+        <v>1.403730360111837</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.029504585403686</v>
+        <v>4.029504585403515</v>
       </c>
       <c r="C17">
-        <v>0.7361279203027493</v>
+        <v>0.7361279203032609</v>
       </c>
       <c r="D17">
-        <v>0.4815111270607417</v>
+        <v>0.4815111270609691</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.593224650049279</v>
+        <v>9.593224650049194</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4285034660225122</v>
+        <v>0.4285034660224625</v>
       </c>
       <c r="L17">
         <v>1.334804165827038</v>
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.909213948329125</v>
+        <v>3.909213948329239</v>
       </c>
       <c r="C18">
-        <v>0.7143615104168646</v>
+        <v>0.714361510416893</v>
       </c>
       <c r="D18">
-        <v>0.4690555015239966</v>
+        <v>0.4690555015242808</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.333421051366855</v>
+        <v>9.333421051366741</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4163963959563048</v>
+        <v>0.4163963959562906</v>
       </c>
       <c r="L18">
         <v>1.295736758284789</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.868782995080437</v>
+        <v>3.868782995080153</v>
       </c>
       <c r="C19">
-        <v>0.7070521018235922</v>
+        <v>0.7070521018240754</v>
       </c>
       <c r="D19">
-        <v>0.4648691346023099</v>
+        <v>0.4648691346021963</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.246066252048053</v>
+        <v>9.246066252047825</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4123252824282986</v>
+        <v>0.412325282428327</v>
       </c>
       <c r="L19">
         <v>1.282602593450505</v>
@@ -1099,16 +1099,16 @@
         <v>4.051913291959806</v>
       </c>
       <c r="C20">
-        <v>0.7401860111668839</v>
+        <v>0.7401860111669123</v>
       </c>
       <c r="D20">
-        <v>0.483831515282219</v>
+        <v>0.4838315152821622</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.641607075362856</v>
+        <v>9.641607075362913</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.430757968773527</v>
+        <v>0.4307579687735128</v>
       </c>
       <c r="L20">
-        <v>1.342080357700908</v>
+        <v>1.342080357700937</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,13 +1134,13 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.690715447525236</v>
+        <v>4.690715447525179</v>
       </c>
       <c r="C21">
-        <v>0.8563348086015594</v>
+        <v>0.856334808601531</v>
       </c>
       <c r="D21">
-        <v>0.5499875684303959</v>
+        <v>0.5499875684301969</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0.4949003385912292</v>
       </c>
       <c r="L21">
-        <v>1.549276865630802</v>
+        <v>1.549276865630787</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.129527942174661</v>
+        <v>5.129527942174548</v>
       </c>
       <c r="C22">
-        <v>0.9366890298823591</v>
+        <v>0.9366890298819897</v>
       </c>
       <c r="D22">
-        <v>0.5954436882159087</v>
+        <v>0.5954436882157381</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.96213338953578</v>
+        <v>11.96213338953572</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5388086028346919</v>
+        <v>0.5388086028346848</v>
       </c>
       <c r="L22">
-        <v>1.691334071671591</v>
+        <v>1.691334071671605</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.893101634101015</v>
+        <v>4.893101634101185</v>
       </c>
       <c r="C23">
-        <v>0.8933343706839025</v>
+        <v>0.8933343706842436</v>
       </c>
       <c r="D23">
-        <v>0.5709513338772183</v>
+        <v>0.570951333877133</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.45407687121775</v>
+        <v>11.45407687121792</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.515167771700284</v>
+        <v>0.5151677717003338</v>
       </c>
       <c r="L23">
-        <v>1.614824632357482</v>
+        <v>1.614824632357568</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.041776805199788</v>
+        <v>4.041776805199731</v>
       </c>
       <c r="C24">
-        <v>0.738350221398747</v>
+        <v>0.7383502213988322</v>
       </c>
       <c r="D24">
-        <v>0.482781894926319</v>
+        <v>0.4827818949259779</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.619722103559752</v>
+        <v>9.61972210355961</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.42973818906178</v>
+        <v>0.4297381890618084</v>
       </c>
       <c r="L24">
-        <v>1.338789064976268</v>
+        <v>1.33878906497624</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.192206584857388</v>
+        <v>3.192206584857445</v>
       </c>
       <c r="C25">
-        <v>0.5851715569321811</v>
+        <v>0.5851715569327212</v>
       </c>
       <c r="D25">
-        <v>0.3948166417775951</v>
+        <v>0.3948166417774246</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.781929403571041</v>
+        <v>7.781929403570985</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.34407470554887</v>
+        <v>0.3440747055488984</v>
       </c>
       <c r="L25">
-        <v>1.062594302417331</v>
+        <v>1.062594302417345</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.60619674735193</v>
+        <v>2.576862617934978</v>
       </c>
       <c r="C2">
-        <v>0.4801234280139681</v>
+        <v>0.4636809980753469</v>
       </c>
       <c r="D2">
-        <v>0.3341258234847686</v>
+        <v>0.3379365215709385</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.510348959429109</v>
+        <v>6.517460771648331</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007721931780700501</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,33 +442,36 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.284798040196776</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8717532499418823</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.2835813344236513</v>
+      </c>
+      <c r="M2">
+        <v>0.8674623944971245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.226289217409487</v>
+        <v>2.202071338368967</v>
       </c>
       <c r="C3">
-        <v>0.4121530417147028</v>
+        <v>0.3971866763887704</v>
       </c>
       <c r="D3">
-        <v>0.2947505837864099</v>
+        <v>0.2988867345857926</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.684330340228883</v>
+        <v>5.69845124143356</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000783843716080546</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -477,33 +483,36 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2463089215349896</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7479314857397412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.2451457591879915</v>
+      </c>
+      <c r="M3">
+        <v>0.744542930114072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.99954597192189</v>
+        <v>1.978443182584044</v>
       </c>
       <c r="C4">
-        <v>0.3715849521796031</v>
+        <v>0.3575216066442124</v>
       </c>
       <c r="D4">
-        <v>0.2712278979877709</v>
+        <v>0.2755544622505113</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.190703667465414</v>
+        <v>5.208989268113214</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007911191749977713</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,33 +524,36 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2233215161205067</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6740069733529239</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2221841443360475</v>
+      </c>
+      <c r="M4">
+        <v>0.6711563983576667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.90853123728877</v>
+        <v>1.888695649928707</v>
       </c>
       <c r="C5">
-        <v>0.3552922422937002</v>
+        <v>0.3415972362560922</v>
       </c>
       <c r="D5">
-        <v>0.261779176705403</v>
+        <v>0.2661814286678634</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.992426615922682</v>
+        <v>5.012382714728943</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007941187469073836</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,33 +565,36 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2140921527320216</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.644331178168855</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.212963747432525</v>
+      </c>
+      <c r="M5">
+        <v>0.6416968827276364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.893495085393766</v>
+        <v>1.873869897098984</v>
       </c>
       <c r="C6">
-        <v>0.3525998405679616</v>
+        <v>0.3389660492419466</v>
       </c>
       <c r="D6">
-        <v>0.2602177529150538</v>
+        <v>0.2646324696639795</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.959662506870643</v>
+        <v>4.979894598562964</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000794619034028333</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,33 +606,36 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.212567319595756</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6394285031476983</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.2114403161441771</v>
+      </c>
+      <c r="M6">
+        <v>0.6368299707278027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.998313222248811</v>
+        <v>1.977227526537121</v>
       </c>
       <c r="C7">
-        <v>0.371364321310665</v>
+        <v>0.3573059404837124</v>
       </c>
       <c r="D7">
-        <v>0.2710999486561576</v>
+        <v>0.2754275408369864</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.188018627137836</v>
+        <v>5.206326854619817</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007911594825464771</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,33 +647,36 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2231965159298923</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6736050355402696</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.2220592710350076</v>
+      </c>
+      <c r="M7">
+        <v>0.6707573880199078</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.473687386487086</v>
+        <v>2.446125680994669</v>
       </c>
       <c r="C8">
-        <v>0.4564103782664972</v>
+        <v>0.4404783507017385</v>
       </c>
       <c r="D8">
-        <v>0.3203959460154948</v>
+        <v>0.3243211160451267</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.222386897707594</v>
+        <v>6.231949699597891</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007761875825528231</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,33 +688,36 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2713777411249012</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8285720517291679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2701811252399722</v>
+      </c>
+      <c r="M8">
+        <v>0.8245963477100346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.471113009106432</v>
+        <v>3.430397721891609</v>
       </c>
       <c r="C9">
-        <v>0.6353213900309242</v>
+        <v>0.6156232837264781</v>
       </c>
       <c r="D9">
-        <v>0.4236946137259849</v>
+        <v>0.4267302663033234</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.386019309804539</v>
+        <v>8.376868454511623</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007475814755901714</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,33 +729,36 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3722368710797213</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.153336577931427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.3708540103921152</v>
+      </c>
+      <c r="M9">
+        <v>1.146960729205304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.266336094035353</v>
+        <v>4.215236565020803</v>
       </c>
       <c r="C10">
-        <v>0.7790706116965112</v>
+        <v>0.7564308958640709</v>
       </c>
       <c r="D10">
-        <v>0.5060356634544974</v>
+        <v>0.5083103444333972</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.10431009327729</v>
+        <v>10.07962404392433</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007266677150620787</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,33 +770,36 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4523159782159425</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.411678088179599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.4507285257799225</v>
+      </c>
+      <c r="M10">
+        <v>1.403313388926335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.648165396461422</v>
+        <v>4.592044607836328</v>
       </c>
       <c r="C11">
-        <v>0.8485688081667888</v>
+        <v>0.824515327394522</v>
       </c>
       <c r="D11">
-        <v>0.5455803701799766</v>
+        <v>0.5474708893078173</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.92709063477236</v>
+        <v>10.89468544765037</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007170748388687846</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,33 +811,36 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4906358194370242</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.535489831559445</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.4889323354829074</v>
+      </c>
+      <c r="M11">
+        <v>1.526135821751197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.796336715396365</v>
+        <v>4.738255299081231</v>
       </c>
       <c r="C12">
-        <v>0.875631400946304</v>
+        <v>0.8510273025956678</v>
       </c>
       <c r="D12">
-        <v>0.5609278761331211</v>
+        <v>0.5626657535389654</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.24596205346484</v>
+        <v>11.21050929122396</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.000713420210129835</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,33 +852,36 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5054809245528276</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.583491009376431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.503729215284892</v>
+      </c>
+      <c r="M12">
+        <v>1.573746022925548</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.764253343784901</v>
+        <v>4.706597133338619</v>
       </c>
       <c r="C13">
-        <v>0.8697669799913683</v>
+        <v>0.8452822301545666</v>
       </c>
       <c r="D13">
-        <v>0.5576046036144362</v>
+        <v>0.5593757068429284</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.17693715264812</v>
+        <v>11.14214687105448</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007142084737385979</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,33 +893,36 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5022677636246939</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.57309956166327</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.5005266504379975</v>
+      </c>
+      <c r="M13">
+        <v>1.563439587241518</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.660279233775327</v>
+        <v>4.60399844169126</v>
       </c>
       <c r="C14">
-        <v>0.8507793111844251</v>
+        <v>0.8266808665076439</v>
       </c>
       <c r="D14">
-        <v>0.5468350734662977</v>
+        <v>0.5487131899791109</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.95316897051703</v>
+        <v>10.92051576302856</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0007167746810973066</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,33 +934,36 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4918500322082764</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.539415161885515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.4901426734508902</v>
+      </c>
+      <c r="M14">
+        <v>1.530029342551302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.597081694560416</v>
+        <v>4.541635104393094</v>
       </c>
       <c r="C15">
-        <v>0.8392510752072155</v>
+        <v>0.8153871137523083</v>
       </c>
       <c r="D15">
-        <v>0.5402894033557857</v>
+        <v>0.5422320756057957</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.81710191708703</v>
+        <v>10.78574044165174</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007183433342725951</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,33 +975,36 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4855144713256436</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.518934962185185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.4838271951343316</v>
+      </c>
+      <c r="M15">
+        <v>1.509714795233009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.241842522873981</v>
+        <v>4.191063866726779</v>
       </c>
       <c r="C16">
-        <v>0.7746237812124264</v>
+        <v>0.7520745913860765</v>
       </c>
       <c r="D16">
-        <v>0.5034991818285164</v>
+        <v>0.5057980697862945</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.05147896057937</v>
+        <v>10.02728183056286</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007272921819433277</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,33 +1016,36 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4498547720091111</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.403730360111837</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.4482743632628541</v>
+      </c>
+      <c r="M16">
+        <v>1.395428283730269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.029504585403515</v>
+        <v>3.981503162253091</v>
       </c>
       <c r="C17">
-        <v>0.7361279203032609</v>
+        <v>0.7143632057959053</v>
       </c>
       <c r="D17">
-        <v>0.4815111270609691</v>
+        <v>0.4840177489525388</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.593224650049194</v>
+        <v>9.573236452719584</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007327548669002511</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,33 +1057,36 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4285034660224625</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.334804165827038</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.4269821281848394</v>
+      </c>
+      <c r="M17">
+        <v>1.327041050789276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.909213948329239</v>
+        <v>3.862783142502906</v>
       </c>
       <c r="C18">
-        <v>0.714361510416893</v>
+        <v>0.6930412140898454</v>
       </c>
       <c r="D18">
-        <v>0.4690555015242808</v>
+        <v>0.4716781570674016</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.333421051366741</v>
+        <v>9.315794624934227</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007358901667508022</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1047,33 +1098,36 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4163963959562906</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.295736758284789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.4149069468486246</v>
+      </c>
+      <c r="M18">
+        <v>1.288275991486515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.868782995080153</v>
+        <v>3.822879798778615</v>
       </c>
       <c r="C19">
-        <v>0.7070521018240754</v>
+        <v>0.685881224645243</v>
       </c>
       <c r="D19">
-        <v>0.4648691346021963</v>
+        <v>0.4675305287823903</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.246066252047825</v>
+        <v>9.229230125166993</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007369508643759129</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,33 +1139,36 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.412325282428327</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.282602593450505</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.4108462969582192</v>
+      </c>
+      <c r="M19">
+        <v>1.275242990631241</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.051913291959806</v>
+        <v>4.00361910212456</v>
       </c>
       <c r="C20">
-        <v>0.7401860111669123</v>
+        <v>0.7183385184406745</v>
       </c>
       <c r="D20">
-        <v>0.4838315152821622</v>
+        <v>0.4863163913072412</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.641607075362913</v>
+        <v>9.621177140143203</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007321741174348783</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1123,33 +1180,36 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4307579687735128</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.342080357700937</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.4292305649191661</v>
+      </c>
+      <c r="M20">
+        <v>1.334260687159258</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.690715447525179</v>
+        <v>4.634032424443433</v>
       </c>
       <c r="C21">
-        <v>0.856334808601531</v>
+        <v>0.8321233525086313</v>
       </c>
       <c r="D21">
-        <v>0.5499875684301969</v>
+        <v>0.5518344633049139</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>11.0186843200562</v>
+        <v>10.98540707370671</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007160216178597404</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,33 +1221,36 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4949003385912292</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.549276865630787</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.4931831911588347</v>
+      </c>
+      <c r="M21">
+        <v>1.539811003956927</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.129527942174548</v>
+        <v>5.067005609587454</v>
       </c>
       <c r="C22">
-        <v>0.9366890298819897</v>
+        <v>0.9108405341797834</v>
       </c>
       <c r="D22">
-        <v>0.5954436882157381</v>
+        <v>0.5968306297752406</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.96213338953572</v>
+        <v>11.91971203642328</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000705329922273708</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,33 +1262,36 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5388086028346848</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.691334071671605</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.5369417401909544</v>
+      </c>
+      <c r="M22">
+        <v>1.680694032124748</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.893101634101185</v>
+        <v>4.833735362194147</v>
       </c>
       <c r="C23">
-        <v>0.8933343706842436</v>
+        <v>0.8683698500720425</v>
       </c>
       <c r="D23">
-        <v>0.570951333877133</v>
+        <v>0.5725884074171006</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.45407687121792</v>
+        <v>11.41661715627595</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007110528115941914</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,33 +1303,36 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5151677717003338</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.614824632357568</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.5133835848481496</v>
+      </c>
+      <c r="M23">
+        <v>1.604822028020138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.041776805199731</v>
+        <v>3.993615055159694</v>
       </c>
       <c r="C24">
-        <v>0.7383502213988322</v>
+        <v>0.7165401729116638</v>
       </c>
       <c r="D24">
-        <v>0.4827818949259779</v>
+        <v>0.4852766127118002</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.61972210355961</v>
+        <v>9.599492056515629</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007324366898345068</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,33 +1344,36 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4297381890618084</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.33878906497624</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.4282135340374964</v>
+      </c>
+      <c r="M24">
+        <v>1.33099498626639</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.192206584857445</v>
+        <v>3.155137634751839</v>
       </c>
       <c r="C25">
-        <v>0.5851715569327212</v>
+        <v>0.5665126406518368</v>
       </c>
       <c r="D25">
-        <v>0.3948166417774246</v>
+        <v>0.3981077841597198</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.781929403570985</v>
+        <v>7.77808243781331</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007552726237232703</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3440747055488984</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.062594302417345</v>
+        <v>0.3427519065698021</v>
+      </c>
+      <c r="M25">
+        <v>1.056897666465318</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.576862617934978</v>
+        <v>3.100082896850665</v>
       </c>
       <c r="C2">
-        <v>0.4636809980753469</v>
+        <v>0.7956871032955064</v>
       </c>
       <c r="D2">
-        <v>0.3379365215709385</v>
+        <v>0.01302079516731425</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.517460771648331</v>
+        <v>0.935752315903926</v>
       </c>
       <c r="G2">
-        <v>0.0007721931780700501</v>
+        <v>0.0007723837956038672</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,33 +451,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2835813344236513</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8674623944971245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0.5220854550454561</v>
+      </c>
+      <c r="O2">
+        <v>0.6669604012416173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.202071338368967</v>
+        <v>2.682102643352266</v>
       </c>
       <c r="C3">
-        <v>0.3971866763887704</v>
+        <v>0.6907757758441733</v>
       </c>
       <c r="D3">
-        <v>0.2988867345857926</v>
+        <v>0.01302788554692924</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>5.69845124143356</v>
+        <v>0.836897460083236</v>
       </c>
       <c r="G3">
-        <v>0.000783843716080546</v>
+        <v>0.0007788332744441059</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -486,33 +498,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2451457591879915</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.744542930114072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.5589399472674579</v>
+      </c>
+      <c r="O3">
+        <v>0.6014671893019425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.978443182584044</v>
+        <v>2.427637387536038</v>
       </c>
       <c r="C4">
-        <v>0.3575216066442124</v>
+        <v>0.6267857583561636</v>
       </c>
       <c r="D4">
-        <v>0.2755544622505113</v>
+        <v>0.01305252665892631</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.208989268113214</v>
+        <v>0.7787906063990704</v>
       </c>
       <c r="G4">
-        <v>0.0007911191749977713</v>
+        <v>0.0007829059678097993</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -527,33 +545,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2221841443360475</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6711563983576667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.5828432931124468</v>
+      </c>
+      <c r="O4">
+        <v>0.5633226368096373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.888695649928707</v>
+        <v>2.324398285345922</v>
       </c>
       <c r="C5">
-        <v>0.3415972362560922</v>
+        <v>0.6007943468573558</v>
       </c>
       <c r="D5">
-        <v>0.2661814286678634</v>
+        <v>0.01306728801894685</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.012382714728943</v>
+        <v>0.7557028698817589</v>
       </c>
       <c r="G5">
-        <v>0.0007941187469073836</v>
+        <v>0.0007845949446432282</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -568,33 +592,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.212963747432525</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6416968827276364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.5928916545335419</v>
+      </c>
+      <c r="O5">
+        <v>0.548251802719733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.873869897098984</v>
+        <v>2.307280648728806</v>
       </c>
       <c r="C6">
-        <v>0.3389660492419466</v>
+        <v>0.5964830157414553</v>
       </c>
       <c r="D6">
-        <v>0.2646324696639795</v>
+        <v>0.01307001382359552</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.979894598562964</v>
+        <v>0.7519032028719295</v>
       </c>
       <c r="G6">
-        <v>0.000794619034028333</v>
+        <v>0.00078487719640985</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -609,33 +639,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2114403161441771</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6368299707278027</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0.5945783920064862</v>
+      </c>
+      <c r="O6">
+        <v>0.5457765881554622</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.977227526537121</v>
+        <v>2.42624333005682</v>
       </c>
       <c r="C7">
-        <v>0.3573059404837124</v>
+        <v>0.6264349127148705</v>
       </c>
       <c r="D7">
-        <v>0.2754275408369864</v>
+        <v>0.0130527070994173</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.206326854619817</v>
+        <v>0.7784769194268506</v>
       </c>
       <c r="G7">
-        <v>0.0007911594825464771</v>
+        <v>0.000782928625928354</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -650,33 +686,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2220592710350076</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6707573880199078</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0.5829775799738783</v>
+      </c>
+      <c r="O7">
+        <v>0.563117528987064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.446125680994669</v>
+        <v>2.955455411293769</v>
       </c>
       <c r="C8">
-        <v>0.4404783507017385</v>
+        <v>0.759411415945408</v>
       </c>
       <c r="D8">
-        <v>0.3243211160451267</v>
+        <v>0.01301878626447817</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.231949699597891</v>
+        <v>0.9010919682743577</v>
       </c>
       <c r="G8">
-        <v>0.0007761875825528231</v>
+        <v>0.0007745848020630107</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -691,33 +733,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2701811252399722</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8245963477100346</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.5345202777007572</v>
+      </c>
+      <c r="O8">
+        <v>0.6439197908021725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.430397721891609</v>
+        <v>4.014962847124309</v>
       </c>
       <c r="C9">
-        <v>0.6156232837264781</v>
+        <v>1.024659007243656</v>
       </c>
       <c r="D9">
-        <v>0.4267302663033234</v>
+        <v>0.01313285391251995</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.376868454511623</v>
+        <v>1.165048865761847</v>
       </c>
       <c r="G9">
-        <v>0.0007475814755901714</v>
+        <v>0.0007590683674872658</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -732,33 +780,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3708540103921152</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.146960729205304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0.4502399807054083</v>
+      </c>
+      <c r="O9">
+        <v>0.8210857453921108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.215236565020803</v>
+        <v>4.813512196201373</v>
       </c>
       <c r="C10">
-        <v>0.7564308958640709</v>
+        <v>1.223978441842803</v>
       </c>
       <c r="D10">
-        <v>0.5083103444333972</v>
+        <v>0.01335827397958056</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>10.07962404392433</v>
+        <v>1.377836495270316</v>
       </c>
       <c r="G10">
-        <v>0.0007266677150620787</v>
+        <v>0.0007481102131476547</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -773,33 +827,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4507285257799225</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.403313388926335</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.395829022983758</v>
+      </c>
+      <c r="O10">
+        <v>0.9661818783511364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.592044607836328</v>
+        <v>5.182895144278007</v>
       </c>
       <c r="C11">
-        <v>0.824515327394522</v>
+        <v>1.316051549043209</v>
       </c>
       <c r="D11">
-        <v>0.5474708893078173</v>
+        <v>0.01349999414841818</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.89468544765037</v>
+        <v>1.479869047398239</v>
       </c>
       <c r="G11">
-        <v>0.0007170748388687846</v>
+        <v>0.0007432026349173847</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -814,33 +874,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4889323354829074</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.526135821751197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0.3729469849537566</v>
+      </c>
+      <c r="O11">
+        <v>1.036317092207696</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.738255299081231</v>
+        <v>5.323812421423213</v>
       </c>
       <c r="C12">
-        <v>0.8510273025956678</v>
+        <v>1.35115948548497</v>
       </c>
       <c r="D12">
-        <v>0.5626657535389654</v>
+        <v>0.01356012774848026</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>11.21050929122396</v>
+        <v>1.519365472079897</v>
       </c>
       <c r="G12">
-        <v>0.000713420210129835</v>
+        <v>0.0007413536816944537</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -855,33 +921,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.503729215284892</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.573746022925548</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0.3645737703344238</v>
+      </c>
+      <c r="O12">
+        <v>1.06355269064484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.706597133338619</v>
+        <v>5.29341436764463</v>
       </c>
       <c r="C13">
-        <v>0.8452822301545666</v>
+        <v>1.343586914236653</v>
       </c>
       <c r="D13">
-        <v>0.5593757068429284</v>
+        <v>0.01354687464088755</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>11.14214687105448</v>
+        <v>1.510819190890814</v>
       </c>
       <c r="G13">
-        <v>0.0007142084737385979</v>
+        <v>0.0007417514957581628</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -896,33 +968,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5005266504379975</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.563439587241518</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.3663637274197598</v>
+      </c>
+      <c r="O13">
+        <v>1.057655489019282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.60399844169126</v>
+        <v>5.19446666937182</v>
       </c>
       <c r="C14">
-        <v>0.8266808665076439</v>
+        <v>1.318934805362744</v>
       </c>
       <c r="D14">
-        <v>0.5487131899791109</v>
+        <v>0.01350480653884389</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.92051576302856</v>
+        <v>1.483100577376973</v>
       </c>
       <c r="G14">
-        <v>0.0007167746810973066</v>
+        <v>0.000743050341564148</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -937,33 +1015,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4901426734508902</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.530029342551302</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0.3722521294460606</v>
+      </c>
+      <c r="O14">
+        <v>1.038543706129772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.541635104393094</v>
+        <v>5.133998840951733</v>
       </c>
       <c r="C15">
-        <v>0.8153871137523083</v>
+        <v>1.303867449238965</v>
       </c>
       <c r="D15">
-        <v>0.5422320756057957</v>
+        <v>0.01347990771661856</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.78574044165174</v>
+        <v>1.466237336185472</v>
       </c>
       <c r="G15">
-        <v>0.0007183433342725951</v>
+        <v>0.000743847098395232</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -978,33 +1062,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4838271951343316</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.509714795233009</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0.375897655833576</v>
+      </c>
+      <c r="O15">
+        <v>1.026927963792346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.191063866726779</v>
+        <v>4.7895085612613</v>
       </c>
       <c r="C16">
-        <v>0.7520745913860765</v>
+        <v>1.217992791654922</v>
       </c>
       <c r="D16">
-        <v>0.5057980697862945</v>
+        <v>0.01334986904741342</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>10.02728183056286</v>
+        <v>1.371282572633234</v>
       </c>
       <c r="G16">
-        <v>0.0007272921819433277</v>
+        <v>0.0007484323514974305</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1019,33 +1109,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4482743632628541</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.395428283730269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0.3973639405761951</v>
+      </c>
+      <c r="O16">
+        <v>0.9616883746286078</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.981503162253091</v>
+        <v>4.579850536408003</v>
       </c>
       <c r="C17">
-        <v>0.7143632057959053</v>
+        <v>1.16569770364913</v>
       </c>
       <c r="D17">
-        <v>0.4840177489525388</v>
+        <v>0.01328068383941527</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.573236452719584</v>
+        <v>1.314443525977609</v>
       </c>
       <c r="G17">
-        <v>0.0007327548669002511</v>
+        <v>0.0007512639235011921</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1060,33 +1156,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4269821281848394</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.327041050789276</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0.4110272106142432</v>
+      </c>
+      <c r="O17">
+        <v>0.9227800701089137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.862783142502906</v>
+        <v>4.459826143195869</v>
       </c>
       <c r="C18">
-        <v>0.6930412140898454</v>
+        <v>1.135748214451326</v>
       </c>
       <c r="D18">
-        <v>0.4716781570674016</v>
+        <v>0.01324452101441054</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.315794624934227</v>
+        <v>1.282236886254537</v>
       </c>
       <c r="G18">
-        <v>0.0007358901667508022</v>
+        <v>0.000752899959150055</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1101,33 +1203,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4149069468486246</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.288275991486515</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0.4190604509805596</v>
+      </c>
+      <c r="O18">
+        <v>0.9007843210863342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.822879798778615</v>
+        <v>4.419280453604529</v>
       </c>
       <c r="C19">
-        <v>0.685881224645243</v>
+        <v>1.125628880184507</v>
       </c>
       <c r="D19">
-        <v>0.4675305287823903</v>
+        <v>0.01323287703134568</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.229230125166993</v>
+        <v>1.271412637558171</v>
       </c>
       <c r="G19">
-        <v>0.0007369508643759129</v>
+        <v>0.0007534552103978588</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1142,33 +1250,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4108462969582192</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.275242990631241</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0.4218096796389119</v>
+      </c>
+      <c r="O19">
+        <v>0.8934003854842416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.00361910212456</v>
+        <v>4.602109375352029</v>
       </c>
       <c r="C20">
-        <v>0.7183385184406745</v>
+        <v>1.171250949842545</v>
       </c>
       <c r="D20">
-        <v>0.4863163913072412</v>
+        <v>0.01328766730987141</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.621177140143203</v>
+        <v>1.320443141426338</v>
       </c>
       <c r="G20">
-        <v>0.0007321741174348783</v>
+        <v>0.0007509617445718986</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1183,33 +1297,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4292305649191661</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.334260687159258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0.4095545154766356</v>
+      </c>
+      <c r="O20">
+        <v>0.9268816856193496</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.634032424443433</v>
+        <v>5.223500416495028</v>
       </c>
       <c r="C21">
-        <v>0.8321233525086313</v>
+        <v>1.326168818873043</v>
       </c>
       <c r="D21">
-        <v>0.5518344633049139</v>
+        <v>0.0135169801712216</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.98540707370671</v>
+        <v>1.491217989858939</v>
       </c>
       <c r="G21">
-        <v>0.0007160216178597404</v>
+        <v>0.0007426685971625673</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1224,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4931831911588347</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.539811003956927</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0.3705144515768168</v>
+      </c>
+      <c r="O21">
+        <v>1.044138220781136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.067005609587454</v>
+        <v>5.635764941195873</v>
       </c>
       <c r="C22">
-        <v>0.9108405341797834</v>
+        <v>1.428848536470696</v>
       </c>
       <c r="D22">
-        <v>0.5968306297752406</v>
+        <v>0.01370502678599905</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.91971203642328</v>
+        <v>1.607893796293837</v>
       </c>
       <c r="G22">
-        <v>0.000705329922273708</v>
+        <v>0.0007373026535952165</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1265,33 +1391,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5369417401909544</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.680694032124748</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.346712304619281</v>
+      </c>
+      <c r="O22">
+        <v>1.124763240352934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.833735362194147</v>
+        <v>5.415111175059906</v>
       </c>
       <c r="C23">
-        <v>0.8683698500720425</v>
+        <v>1.373900829384183</v>
       </c>
       <c r="D23">
-        <v>0.5725884074171006</v>
+        <v>0.013600860237311</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.41661715627595</v>
+        <v>1.545120032246288</v>
       </c>
       <c r="G23">
-        <v>0.0007110528115941914</v>
+        <v>0.0007401622121923846</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1306,33 +1438,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5133835848481496</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.604822028020138</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0.3592510281320642</v>
+      </c>
+      <c r="O23">
+        <v>1.081337031814641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.993615055159694</v>
+        <v>4.592044575115381</v>
       </c>
       <c r="C24">
-        <v>0.7165401729116638</v>
+        <v>1.168739969987939</v>
       </c>
       <c r="D24">
-        <v>0.4852766127118002</v>
+        <v>0.01328449889155792</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.599492056515629</v>
+        <v>1.317729256458776</v>
       </c>
       <c r="G24">
-        <v>0.0007324366898345068</v>
+        <v>0.0007510983342169498</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1347,33 +1485,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4282135340374964</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.33099498626639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0.4102197680767716</v>
+      </c>
+      <c r="O24">
+        <v>0.9250261891128559</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.155137634751839</v>
+        <v>3.725341968700661</v>
       </c>
       <c r="C25">
-        <v>0.5665126406518368</v>
+        <v>0.9522567301652884</v>
       </c>
       <c r="D25">
-        <v>0.3981077841597198</v>
+        <v>0.01307967246048847</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>7.77808243781331</v>
+        <v>1.090683717652809</v>
       </c>
       <c r="G25">
-        <v>0.0007552726237232703</v>
+        <v>0.0007631826492277618</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1388,10 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3427519065698021</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.056897666465318</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.4717963280002877</v>
+      </c>
+      <c r="O25">
+        <v>0.7708111436830123</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.100082896850665</v>
+        <v>1.084091835351217</v>
       </c>
       <c r="C2">
-        <v>0.7956871032955064</v>
+        <v>0.08415349888391432</v>
       </c>
       <c r="D2">
-        <v>0.01302079516731425</v>
+        <v>0.1098412847927506</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.935752315903926</v>
+        <v>0.786654996966206</v>
       </c>
       <c r="G2">
-        <v>0.0007723837956038672</v>
+        <v>0.000821436296481053</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.4466212604315984</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.07514820743170247</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9205962726848043</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2686836126929535</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.5220854550454561</v>
+        <v>0.9466996726576173</v>
       </c>
       <c r="O2">
-        <v>0.6669604012416173</v>
+        <v>1.918481020061051</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.682102643352266</v>
+        <v>0.9461372397236403</v>
       </c>
       <c r="C3">
-        <v>0.6907757758441733</v>
+        <v>0.07903284825249557</v>
       </c>
       <c r="D3">
-        <v>0.01302788554692924</v>
+        <v>0.09933621820989913</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.836897460083236</v>
+        <v>0.7699073949857222</v>
       </c>
       <c r="G3">
-        <v>0.0007788332744441059</v>
+        <v>0.0008248141192045141</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4497637991461367</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.07485032372028044</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8003057720027016</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2432228347763612</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.5589399472674579</v>
+        <v>0.9877091266559468</v>
       </c>
       <c r="O3">
-        <v>0.6014671893019425</v>
+        <v>1.902158350746021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.427637387536038</v>
+        <v>0.8617108251735885</v>
       </c>
       <c r="C4">
-        <v>0.6267857583561636</v>
+        <v>0.07588023987996451</v>
       </c>
       <c r="D4">
-        <v>0.01305252665892631</v>
+        <v>0.0929526748484335</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7787906063990704</v>
+        <v>0.7608040028064877</v>
       </c>
       <c r="G4">
-        <v>0.0007829059678097993</v>
+        <v>0.0008269613634319661</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4523958154388339</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.07475478554508186</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.7265668662056584</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.227795957472523</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.5828432931124468</v>
+        <v>1.013939574517434</v>
       </c>
       <c r="O4">
-        <v>0.5633226368096373</v>
+        <v>1.895264828769271</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.324398285345922</v>
+        <v>0.827365991802111</v>
       </c>
       <c r="C5">
-        <v>0.6007943468573558</v>
+        <v>0.07459300111653988</v>
       </c>
       <c r="D5">
-        <v>0.01306728801894685</v>
+        <v>0.09036717805853556</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7557028698817589</v>
+        <v>0.757380257719575</v>
       </c>
       <c r="G5">
-        <v>0.0007845949446432282</v>
+        <v>0.0008278550563804065</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.453639654971294</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.07473727756466531</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.696539048140167</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2215581444381343</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.5928916545335419</v>
+        <v>1.024887765234138</v>
       </c>
       <c r="O5">
-        <v>0.548251802719733</v>
+        <v>1.893214575001807</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.307280648728806</v>
+        <v>0.8216663666166539</v>
       </c>
       <c r="C6">
-        <v>0.5964830157414553</v>
+        <v>0.07437909276884369</v>
       </c>
       <c r="D6">
-        <v>0.01307001382359552</v>
+        <v>0.08993878998695237</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7519032028719295</v>
+        <v>0.75682871511993</v>
       </c>
       <c r="G6">
-        <v>0.00078487719640985</v>
+        <v>0.0008280045885346032</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.453856385121874</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0747356489015587</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.6915539957661281</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2205252185087829</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.5945783920064862</v>
+        <v>1.026721206812708</v>
       </c>
       <c r="O6">
-        <v>0.5457765881554622</v>
+        <v>1.892919178007858</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.42624333005682</v>
+        <v>0.8612474106570005</v>
       </c>
       <c r="C7">
-        <v>0.6264349127148705</v>
+        <v>0.0758628904448031</v>
       </c>
       <c r="D7">
-        <v>0.0130527070994173</v>
+        <v>0.09291774292283606</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7784769194268506</v>
+        <v>0.7607566849191585</v>
       </c>
       <c r="G7">
-        <v>0.000782928625928354</v>
+        <v>0.0008269733402683251</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4524119037555998</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.07475446338052905</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7261618252298092</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2277116386545401</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.5829775799738783</v>
+        <v>1.014086183225319</v>
       </c>
       <c r="O7">
-        <v>0.563117528987064</v>
+        <v>1.895234141390148</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.955455411293769</v>
+        <v>1.0364608974877</v>
       </c>
       <c r="C8">
-        <v>0.759411415945408</v>
+        <v>0.08238942319387377</v>
       </c>
       <c r="D8">
-        <v>0.01301878626447817</v>
+        <v>0.1062047548892195</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9010919682743577</v>
+        <v>0.7806289954112202</v>
       </c>
       <c r="G8">
-        <v>0.0007745848020630107</v>
+        <v>0.000822585923603241</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.4475557013522113</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.07502703025399882</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8790897512440097</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2598600510652176</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.5345202777007572</v>
+        <v>0.9606185870484945</v>
       </c>
       <c r="O8">
-        <v>0.6439197908021725</v>
+        <v>1.912186481015183</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.014962847124309</v>
+        <v>1.382772134390848</v>
       </c>
       <c r="C9">
-        <v>1.024659007243656</v>
+        <v>0.09513965831052928</v>
       </c>
       <c r="D9">
-        <v>0.01313285391251995</v>
+        <v>0.132833028126214</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.165048865761847</v>
+        <v>0.8294666164027191</v>
       </c>
       <c r="G9">
-        <v>0.0007590683674872658</v>
+        <v>0.0008145513141682437</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.4438605213496736</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.07628049802292125</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.180365911198948</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.3246873470155691</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.4502399807054083</v>
+        <v>0.864340575601771</v>
       </c>
       <c r="O9">
-        <v>0.8210857453921108</v>
+        <v>1.971573711598495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.813512196201373</v>
+        <v>1.639637835572387</v>
       </c>
       <c r="C10">
-        <v>1.223978441842803</v>
+        <v>0.1045073842134414</v>
       </c>
       <c r="D10">
-        <v>0.01335827397958056</v>
+        <v>0.1528118784082722</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.377836495270316</v>
+        <v>0.872108575576874</v>
       </c>
       <c r="G10">
-        <v>0.0007481102131476547</v>
+        <v>0.0008089775381581175</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.4450691946786094</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.07767744959937062</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.403216106508495</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.3736257334187627</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.395829022983758</v>
+        <v>0.7991715811263242</v>
       </c>
       <c r="O10">
-        <v>0.9661818783511364</v>
+        <v>2.033076843033797</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.182895144278007</v>
+        <v>1.757204641359181</v>
       </c>
       <c r="C11">
-        <v>1.316051549043209</v>
+        <v>0.1087762151280387</v>
       </c>
       <c r="D11">
-        <v>0.01349999414841818</v>
+        <v>0.1620064572944528</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.479869047398239</v>
+        <v>0.8931506674075251</v>
       </c>
       <c r="G11">
-        <v>0.0007432026349173847</v>
+        <v>0.0008065092849527389</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4465579892360836</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.07842515767309521</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.505079688016735</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.3962258615663359</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3729469849537566</v>
+        <v>0.7708131703932164</v>
       </c>
       <c r="O11">
-        <v>1.036317092207696</v>
+        <v>2.065391567488774</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.323812421423213</v>
+        <v>1.801843135811026</v>
       </c>
       <c r="C12">
-        <v>1.35115948548497</v>
+        <v>0.110394408017136</v>
       </c>
       <c r="D12">
-        <v>0.01356012774848026</v>
+        <v>0.1655047925446667</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.519365472079897</v>
+        <v>0.9013706230597762</v>
       </c>
       <c r="G12">
-        <v>0.0007413536816944537</v>
+        <v>0.0008055839469562151</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4472644948642923</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.07872521093365847</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.543736478512983</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.4048370621822244</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3645737703344238</v>
+        <v>0.7602669338931909</v>
       </c>
       <c r="O12">
-        <v>1.06355269064484</v>
+        <v>2.07829222024651</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.29341436764463</v>
+        <v>1.792223911639695</v>
       </c>
       <c r="C13">
-        <v>1.343586914236653</v>
+        <v>0.1100458162104232</v>
       </c>
       <c r="D13">
-        <v>0.01354687464088755</v>
+        <v>0.164750606096888</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.510819190890814</v>
+        <v>0.899588856148597</v>
       </c>
       <c r="G13">
-        <v>0.0007417514957581628</v>
+        <v>0.0008057828253946871</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4471058604052942</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.0786598240929095</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.535407125509209</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.4029800540546944</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3663637274197598</v>
+        <v>0.7625295720460432</v>
       </c>
       <c r="O13">
-        <v>1.057655489019282</v>
+        <v>2.075483646054522</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.19446666937182</v>
+        <v>1.760874610695907</v>
       </c>
       <c r="C14">
-        <v>1.318934805362744</v>
+        <v>0.1089093074749456</v>
       </c>
       <c r="D14">
-        <v>0.01350480653884389</v>
+        <v>0.1622939281264451</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.483100577376973</v>
+        <v>0.893821790852698</v>
       </c>
       <c r="G14">
-        <v>0.000743050341564148</v>
+        <v>0.0008064329717089362</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4466132074885039</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.07844949968745496</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.508258258436513</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.3969332211040211</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3722521294460606</v>
+        <v>0.7699416238407002</v>
       </c>
       <c r="O14">
-        <v>1.038543706129772</v>
+        <v>2.06643937001968</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.133998840951733</v>
+        <v>1.741688163653521</v>
       </c>
       <c r="C15">
-        <v>1.303867449238965</v>
+        <v>0.1082134008496425</v>
       </c>
       <c r="D15">
-        <v>0.01347990771661856</v>
+        <v>0.1607913365837703</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.466237336185472</v>
+        <v>0.8903225570413014</v>
       </c>
       <c r="G15">
-        <v>0.000743847098395232</v>
+        <v>0.0008068324105224107</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.4463302680420185</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.07832289617090282</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.491640041064471</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.3932364031647779</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.375897655833576</v>
+        <v>0.774507012135663</v>
       </c>
       <c r="O15">
-        <v>1.026927963792346</v>
+        <v>2.060987166923553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.7895085612613</v>
+        <v>1.631970291083178</v>
       </c>
       <c r="C16">
-        <v>1.217992791654922</v>
+        <v>0.1042286064657247</v>
       </c>
       <c r="D16">
-        <v>0.01334986904741342</v>
+        <v>0.1522132346293859</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.371282572633234</v>
+        <v>0.8707677995524747</v>
       </c>
       <c r="G16">
-        <v>0.0007484323514974305</v>
+        <v>0.0008091401696056424</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.4449914412575424</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.07763090858545496</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.396569999461121</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.3721559332245761</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3973639405761951</v>
+        <v>0.8010513933687822</v>
       </c>
       <c r="O16">
-        <v>0.9616883746286078</v>
+        <v>2.031055640896227</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.579850536408003</v>
+        <v>1.564856249730809</v>
       </c>
       <c r="C17">
-        <v>1.16569770364913</v>
+        <v>0.1017863823461482</v>
       </c>
       <c r="D17">
-        <v>0.01328068383941527</v>
+        <v>0.1469789157919479</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.314443525977609</v>
+        <v>0.8592033057753241</v>
       </c>
       <c r="G17">
-        <v>0.0007512639235011921</v>
+        <v>0.0008105729025556853</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.4444159456328869</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.07723567762287331</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.338381615279701</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.3593133454998281</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4110272106142432</v>
+        <v>0.8176703227397617</v>
       </c>
       <c r="O17">
-        <v>0.9227800701089137</v>
+        <v>2.013832137895719</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.459826143195869</v>
+        <v>1.526320566161502</v>
       </c>
       <c r="C18">
-        <v>1.135748214451326</v>
+        <v>0.1003823369694885</v>
       </c>
       <c r="D18">
-        <v>0.01324452101441054</v>
+        <v>0.1439781788585606</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.282236886254537</v>
+        <v>0.8527054869105228</v>
       </c>
       <c r="G18">
-        <v>0.000752899959150055</v>
+        <v>0.0008114033272051829</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.4441728269835714</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.07701886567767247</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.3049582834511</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.3519581427588179</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4190604509805596</v>
+        <v>0.8273497909062097</v>
       </c>
       <c r="O18">
-        <v>0.9007843210863342</v>
+        <v>2.004331271550427</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.419280453604529</v>
+        <v>1.51328402277025</v>
       </c>
       <c r="C19">
-        <v>1.125628880184507</v>
+        <v>0.09990704632185299</v>
       </c>
       <c r="D19">
-        <v>0.01323287703134568</v>
+        <v>0.1429638439791461</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.271412637558171</v>
+        <v>0.8505313947628395</v>
       </c>
       <c r="G19">
-        <v>0.0007534552103978588</v>
+        <v>0.0008116855961834979</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.4441053791992466</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.07694723988488761</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.29364907677629</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.3494730790967537</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.4218096796389119</v>
+        <v>0.8306476053854901</v>
       </c>
       <c r="O19">
-        <v>0.8934003854842416</v>
+        <v>2.001182926445409</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.602109375352029</v>
+        <v>1.571993659668379</v>
       </c>
       <c r="C20">
-        <v>1.171250949842545</v>
+        <v>0.1020462889494169</v>
       </c>
       <c r="D20">
-        <v>0.01328766730987141</v>
+        <v>0.1475350837527429</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.320443141426338</v>
+        <v>0.8604183427753682</v>
       </c>
       <c r="G20">
-        <v>0.0007509617445718986</v>
+        <v>0.0008104197304078119</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.4444680573512017</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.0772766569632708</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.344571109648228</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.3606771679829137</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.4095545154766356</v>
+        <v>0.8158886654219275</v>
       </c>
       <c r="O20">
-        <v>0.9268816856193496</v>
+        <v>2.015623344274303</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.223500416495028</v>
+        <v>1.770079316850939</v>
       </c>
       <c r="C21">
-        <v>1.326168818873043</v>
+        <v>0.1092430769153694</v>
       </c>
       <c r="D21">
-        <v>0.0135169801712216</v>
+        <v>0.1630150542197271</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.491217989858939</v>
+        <v>0.8955087575718466</v>
       </c>
       <c r="G21">
-        <v>0.0007426685971625673</v>
+        <v>0.0008062417574246084</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4467539741174491</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.07851081166796803</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.516230170126818</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.398707846671897</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3705144515768168</v>
+        <v>0.7677592398394326</v>
       </c>
       <c r="O21">
-        <v>1.044138220781136</v>
+        <v>2.069077546045094</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.635764941195873</v>
+        <v>1.900238315055333</v>
       </c>
       <c r="C22">
-        <v>1.428848536470696</v>
+        <v>0.1139567044273306</v>
       </c>
       <c r="D22">
-        <v>0.01370502678599905</v>
+        <v>0.1732292188761448</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.607893796293837</v>
+        <v>0.9199177154201408</v>
       </c>
       <c r="G22">
-        <v>0.0007373026535952165</v>
+        <v>0.0008035654567120631</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4490838233521046</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.07941637438419136</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.62891135336605</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.4238744184431908</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.346712304619281</v>
+        <v>0.7374295305077512</v>
       </c>
       <c r="O22">
-        <v>1.124763240352934</v>
+        <v>2.107902386533027</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.415111175059906</v>
+        <v>1.830700743254653</v>
       </c>
       <c r="C23">
-        <v>1.373900829384183</v>
+        <v>0.1114398111072887</v>
       </c>
       <c r="D23">
-        <v>0.013600860237311</v>
+        <v>0.1677683943677266</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.545120032246288</v>
+        <v>0.9067498751727499</v>
       </c>
       <c r="G23">
-        <v>0.0007401622121923846</v>
+        <v>0.0008049890023000069</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4477611848409282</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.07892373477526604</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.568721692227143</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.4104125159643388</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3592510281320642</v>
+        <v>0.7535115186740038</v>
       </c>
       <c r="O23">
-        <v>1.081337031814641</v>
+        <v>2.086811018614384</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.592044575115381</v>
+        <v>1.56876668493274</v>
       </c>
       <c r="C24">
-        <v>1.168739969987939</v>
+        <v>0.1019287851521469</v>
       </c>
       <c r="D24">
-        <v>0.01328449889155792</v>
+        <v>0.1472836137057527</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.317729256458776</v>
+        <v>0.8598685561061288</v>
       </c>
       <c r="G24">
-        <v>0.0007510983342169498</v>
+        <v>0.0008104889585798802</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.4444442249259168</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.07725809783176274</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.341772746950824</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.3600604964215535</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.4102197680767716</v>
+        <v>0.8166937638248335</v>
       </c>
       <c r="O24">
-        <v>0.9250261891128559</v>
+        <v>2.014812293370511</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.725341968700661</v>
+        <v>1.288717720467929</v>
       </c>
       <c r="C25">
-        <v>0.9522567301652884</v>
+        <v>0.09169263152919882</v>
       </c>
       <c r="D25">
-        <v>0.01307967246048847</v>
+        <v>0.1255614826023503</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.090683717652809</v>
+        <v>0.8151238924787876</v>
       </c>
       <c r="G25">
-        <v>0.0007631826492277618</v>
+        <v>0.0008166657410405156</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.4441992305939912</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.07586065886562565</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.098648960620096</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.3069366596185574</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4717963280002877</v>
+        <v>0.8894346711461534</v>
       </c>
       <c r="O25">
-        <v>0.7708111436830123</v>
+        <v>1.952516072602862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.084091835351217</v>
+        <v>0.7098885070416259</v>
       </c>
       <c r="C2">
-        <v>0.08415349888391432</v>
+        <v>0.07864104582836262</v>
       </c>
       <c r="D2">
-        <v>0.1098412847927506</v>
+        <v>0.1565908986480764</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.786654996966206</v>
+        <v>1.696331049648762</v>
       </c>
       <c r="G2">
-        <v>0.000821436296481053</v>
+        <v>0.002490942961933952</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4466212604315984</v>
+        <v>1.06570494582818</v>
       </c>
       <c r="J2">
-        <v>0.07514820743170247</v>
+        <v>0.1914952365474001</v>
       </c>
       <c r="K2">
-        <v>0.9205962726848043</v>
+        <v>0.4151878403228864</v>
       </c>
       <c r="L2">
-        <v>0.2686836126929535</v>
+        <v>0.3667765988833622</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9466996726576173</v>
+        <v>1.986254401642821</v>
       </c>
       <c r="O2">
-        <v>1.918481020061051</v>
+        <v>4.290002999546601</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9461372397236403</v>
+        <v>0.6723398164128582</v>
       </c>
       <c r="C3">
-        <v>0.07903284825249557</v>
+        <v>0.07687536464467826</v>
       </c>
       <c r="D3">
-        <v>0.09933621820989913</v>
+        <v>0.1544067579605723</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7699073949857222</v>
+        <v>1.702367124285772</v>
       </c>
       <c r="G3">
-        <v>0.0008248141192045141</v>
+        <v>0.00249323044903841</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4497637991461367</v>
+        <v>1.072873905163434</v>
       </c>
       <c r="J3">
-        <v>0.07485032372028044</v>
+        <v>0.1923844011265778</v>
       </c>
       <c r="K3">
-        <v>0.8003057720027016</v>
+        <v>0.3805412918438265</v>
       </c>
       <c r="L3">
-        <v>0.2432228347763612</v>
+        <v>0.3616697045864186</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9877091266559468</v>
+        <v>2.00431188527564</v>
       </c>
       <c r="O3">
-        <v>1.902158350746021</v>
+        <v>4.312658234789382</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8617108251735885</v>
+        <v>0.6495078773059788</v>
       </c>
       <c r="C4">
-        <v>0.07588023987996451</v>
+        <v>0.0757781368124455</v>
       </c>
       <c r="D4">
-        <v>0.0929526748484335</v>
+        <v>0.153121906508531</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7608040028064877</v>
+        <v>1.706796981319542</v>
       </c>
       <c r="G4">
-        <v>0.0008269613634319661</v>
+        <v>0.002494711434941876</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4523958154388339</v>
+        <v>1.077701877552371</v>
       </c>
       <c r="J4">
-        <v>0.07475478554508186</v>
+        <v>0.1929921663213463</v>
       </c>
       <c r="K4">
-        <v>0.7265668662056584</v>
+        <v>0.3593497618215338</v>
       </c>
       <c r="L4">
-        <v>0.227795957472523</v>
+        <v>0.3586810303730488</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.013939574517434</v>
+        <v>2.015969442555933</v>
       </c>
       <c r="O4">
-        <v>1.895264828769271</v>
+        <v>4.328422246415798</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.827365991802111</v>
+        <v>0.640260550521532</v>
       </c>
       <c r="C5">
-        <v>0.07459300111653988</v>
+        <v>0.07532773068972176</v>
       </c>
       <c r="D5">
-        <v>0.09036717805853556</v>
+        <v>0.1526125373765623</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.757380257719575</v>
+        <v>1.70878439786955</v>
       </c>
       <c r="G5">
-        <v>0.0008278550563804065</v>
+        <v>0.002495334230740354</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.453639654971294</v>
+        <v>1.079776584002772</v>
       </c>
       <c r="J5">
-        <v>0.07473727756466531</v>
+        <v>0.1932554075663937</v>
       </c>
       <c r="K5">
-        <v>0.696539048140167</v>
+        <v>0.3507351545163431</v>
       </c>
       <c r="L5">
-        <v>0.2215581444381343</v>
+        <v>0.3575002435648571</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.024887765234138</v>
+        <v>2.020863431661582</v>
       </c>
       <c r="O5">
-        <v>1.893214575001807</v>
+        <v>4.335312740473086</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8216663666166539</v>
+        <v>0.638728496680983</v>
       </c>
       <c r="C6">
-        <v>0.07437909276884369</v>
+        <v>0.07525274363059253</v>
       </c>
       <c r="D6">
-        <v>0.08993878998695237</v>
+        <v>0.1525288181601354</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.75682871511993</v>
+        <v>1.709125419140264</v>
       </c>
       <c r="G6">
-        <v>0.0008280045885346032</v>
+        <v>0.002495438811862291</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.453856385121874</v>
+        <v>1.08012756902211</v>
       </c>
       <c r="J6">
-        <v>0.0747356489015587</v>
+        <v>0.1933000599148009</v>
       </c>
       <c r="K6">
-        <v>0.6915539957661281</v>
+        <v>0.349305998277174</v>
       </c>
       <c r="L6">
-        <v>0.2205252185087829</v>
+        <v>0.3573064216967623</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.026721206812708</v>
+        <v>2.021684740072608</v>
       </c>
       <c r="O6">
-        <v>1.892919178007858</v>
+        <v>4.336485091686143</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8612474106570005</v>
+        <v>0.6493829333203109</v>
       </c>
       <c r="C7">
-        <v>0.0758628904448031</v>
+        <v>0.07577207572475686</v>
       </c>
       <c r="D7">
-        <v>0.09291774292283606</v>
+        <v>0.1531149793014279</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7607566849191585</v>
+        <v>1.706823046221395</v>
       </c>
       <c r="G7">
-        <v>0.0008269733402683251</v>
+        <v>0.002494719756043959</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4524119037555998</v>
+        <v>1.077729423315031</v>
       </c>
       <c r="J7">
-        <v>0.07475446338052905</v>
+        <v>0.1929956533965758</v>
       </c>
       <c r="K7">
-        <v>0.7261618252298092</v>
+        <v>0.3592334959373886</v>
       </c>
       <c r="L7">
-        <v>0.2277116386545401</v>
+        <v>0.3586649553458727</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.014086183225319</v>
+        <v>2.016034863739929</v>
       </c>
       <c r="O7">
-        <v>1.895234141390148</v>
+        <v>4.328513284494477</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.0364608974877</v>
+        <v>0.6968958623337187</v>
       </c>
       <c r="C8">
-        <v>0.08238942319387377</v>
+        <v>0.07803496502012308</v>
       </c>
       <c r="D8">
-        <v>0.1062047548892195</v>
+        <v>0.1558261863672854</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7806289954112202</v>
+        <v>1.698262228507211</v>
       </c>
       <c r="G8">
-        <v>0.000822585923603241</v>
+        <v>0.002491715851983011</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4475557013522113</v>
+        <v>1.068088402379143</v>
       </c>
       <c r="J8">
-        <v>0.07502703025399882</v>
+        <v>0.1917890077348225</v>
       </c>
       <c r="K8">
-        <v>0.8790897512440097</v>
+        <v>0.4032251231651571</v>
       </c>
       <c r="L8">
-        <v>0.2598600510652176</v>
+        <v>0.3649853316194793</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9606185870484945</v>
+        <v>1.992362317538773</v>
       </c>
       <c r="O8">
-        <v>1.912186481015183</v>
+        <v>4.297430061855465</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.382772134390848</v>
+        <v>0.7918099514203334</v>
       </c>
       <c r="C9">
-        <v>0.09513965831052928</v>
+        <v>0.08236811154957735</v>
       </c>
       <c r="D9">
-        <v>0.132833028126214</v>
+        <v>0.1615857444580655</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8294666164027191</v>
+        <v>1.687207101441018</v>
       </c>
       <c r="G9">
-        <v>0.0008145513141682437</v>
+        <v>0.002486429336515674</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4438605213496736</v>
+        <v>1.052560021999643</v>
       </c>
       <c r="J9">
-        <v>0.07628049802292125</v>
+        <v>0.1899120462737258</v>
       </c>
       <c r="K9">
-        <v>1.180365911198948</v>
+        <v>0.4901180793824267</v>
       </c>
       <c r="L9">
-        <v>0.3246873470155691</v>
+        <v>0.378539566834462</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.864340575601771</v>
+        <v>1.950461308353457</v>
       </c>
       <c r="O9">
-        <v>1.971573711598495</v>
+        <v>4.251166382742412</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.639637835572387</v>
+        <v>0.8625734577283311</v>
       </c>
       <c r="C10">
-        <v>0.1045073842134414</v>
+        <v>0.08548765853898743</v>
       </c>
       <c r="D10">
-        <v>0.1528118784082722</v>
+        <v>0.1660835684304232</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.872108575576874</v>
+        <v>1.682568323281416</v>
       </c>
       <c r="G10">
-        <v>0.0008089775381581175</v>
+        <v>0.002482910070171381</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4450691946786094</v>
+        <v>1.043205129972762</v>
       </c>
       <c r="J10">
-        <v>0.07767744959937062</v>
+        <v>0.1888297480673842</v>
       </c>
       <c r="K10">
-        <v>1.403216106508495</v>
+        <v>0.5543166396610388</v>
       </c>
       <c r="L10">
-        <v>0.3736257334187627</v>
+        <v>0.3891980550330771</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7991715811263242</v>
+        <v>1.922426958398121</v>
       </c>
       <c r="O10">
-        <v>2.033076843033797</v>
+        <v>4.226111604660844</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.757204641359181</v>
+        <v>0.8949830498382596</v>
       </c>
       <c r="C11">
-        <v>0.1087762151280387</v>
+        <v>0.08689285430975957</v>
       </c>
       <c r="D11">
-        <v>0.1620064572944528</v>
+        <v>0.1681868089715408</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8931506674075251</v>
+        <v>1.68121211944954</v>
       </c>
       <c r="G11">
-        <v>0.0008065092849527389</v>
+        <v>0.002481387507693591</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4465579892360836</v>
+        <v>1.039394222359434</v>
       </c>
       <c r="J11">
-        <v>0.07842515767309521</v>
+        <v>0.1884014831653396</v>
       </c>
       <c r="K11">
-        <v>1.505079688016735</v>
+        <v>0.5835955177280994</v>
       </c>
       <c r="L11">
-        <v>0.3962258615663359</v>
+        <v>0.3941975203448322</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7708131703932164</v>
+        <v>1.910269407163038</v>
       </c>
       <c r="O11">
-        <v>2.065391567488774</v>
+        <v>4.21664958291916</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.801843135811026</v>
+        <v>0.9072865085987019</v>
       </c>
       <c r="C12">
-        <v>0.110394408017136</v>
+        <v>0.0874229541388658</v>
       </c>
       <c r="D12">
-        <v>0.1655047925446667</v>
+        <v>0.1689913952262003</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9013706230597762</v>
+        <v>1.68080677268766</v>
       </c>
       <c r="G12">
-        <v>0.0008055839469562151</v>
+        <v>0.002480822165392724</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4472644948642923</v>
+        <v>1.038014987942077</v>
       </c>
       <c r="J12">
-        <v>0.07872521093365847</v>
+        <v>0.1882484976141754</v>
       </c>
       <c r="K12">
-        <v>1.543736478512983</v>
+        <v>0.5946928724337113</v>
       </c>
       <c r="L12">
-        <v>0.4048370621822244</v>
+        <v>0.3961122348914188</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7602669338931909</v>
+        <v>1.905751222301125</v>
       </c>
       <c r="O12">
-        <v>2.07829222024651</v>
+        <v>4.213344519954575</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.792223911639695</v>
+        <v>0.904635388696164</v>
       </c>
       <c r="C13">
-        <v>0.1100458162104232</v>
+        <v>0.0873088776680504</v>
       </c>
       <c r="D13">
-        <v>0.164750606096888</v>
+        <v>0.168817752733176</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.899588856148597</v>
+        <v>1.680889261614155</v>
       </c>
       <c r="G13">
-        <v>0.0008057828253946871</v>
+        <v>0.00248094342373947</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4471058604052942</v>
+        <v>1.038309191081346</v>
       </c>
       <c r="J13">
-        <v>0.0786598240929095</v>
+        <v>0.1882810375051314</v>
       </c>
       <c r="K13">
-        <v>1.535407125509209</v>
+        <v>0.5923024206733771</v>
       </c>
       <c r="L13">
-        <v>0.4029800540546944</v>
+        <v>0.3956989121906105</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7625295720460432</v>
+        <v>1.906720486496715</v>
       </c>
       <c r="O13">
-        <v>2.075483646054522</v>
+        <v>4.214043965499911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.760874610695907</v>
+        <v>0.8959946532899608</v>
       </c>
       <c r="C14">
-        <v>0.1089093074749456</v>
+        <v>0.08693650647700935</v>
       </c>
       <c r="D14">
-        <v>0.1622939281264451</v>
+        <v>0.1682528402193384</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.893821790852698</v>
+        <v>1.681176603654109</v>
       </c>
       <c r="G14">
-        <v>0.0008064329717089362</v>
+        <v>0.002481340772146167</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4466132074885039</v>
+        <v>1.03927947219664</v>
       </c>
       <c r="J14">
-        <v>0.07844949968745496</v>
+        <v>0.1883887129339392</v>
       </c>
       <c r="K14">
-        <v>1.508258258436513</v>
+        <v>0.5845083055210409</v>
       </c>
       <c r="L14">
-        <v>0.3969332211040211</v>
+        <v>0.3943546146264367</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7699416238407002</v>
+        <v>1.909895977518105</v>
       </c>
       <c r="O14">
-        <v>2.06643937001968</v>
+        <v>4.216372103748114</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741688163653521</v>
+        <v>0.8907059201870595</v>
       </c>
       <c r="C15">
-        <v>0.1082134008496425</v>
+        <v>0.08670815511599272</v>
       </c>
       <c r="D15">
-        <v>0.1607913365837703</v>
+        <v>0.1679078718637754</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8903225570413014</v>
+        <v>1.681366696037756</v>
       </c>
       <c r="G15">
-        <v>0.0008068324105224107</v>
+        <v>0.00248158561907712</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4463302680420185</v>
+        <v>1.039882113525735</v>
       </c>
       <c r="J15">
-        <v>0.07832289617090282</v>
+        <v>0.1884558631832043</v>
       </c>
       <c r="K15">
-        <v>1.491640041064471</v>
+        <v>0.5797354781424531</v>
       </c>
       <c r="L15">
-        <v>0.3932364031647779</v>
+        <v>0.3935339918009788</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.774507012135663</v>
+        <v>1.911852207106408</v>
       </c>
       <c r="O15">
-        <v>2.060987166923553</v>
+        <v>4.217834349683301</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.631970291083178</v>
+        <v>0.8604597488642014</v>
       </c>
       <c r="C16">
-        <v>0.1042286064657247</v>
+        <v>0.08539554439159502</v>
       </c>
       <c r="D16">
-        <v>0.1522132346293859</v>
+        <v>0.1659472596524125</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8707677995524747</v>
+        <v>1.682672109180942</v>
       </c>
       <c r="G16">
-        <v>0.0008091401696056424</v>
+        <v>0.002483011145903311</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4449914412575424</v>
+        <v>1.043463123780725</v>
       </c>
       <c r="J16">
-        <v>0.07763090858545496</v>
+        <v>0.1888590234374803</v>
       </c>
       <c r="K16">
-        <v>1.396569999461121</v>
+        <v>0.5524046420921422</v>
       </c>
       <c r="L16">
-        <v>0.3721559332245761</v>
+        <v>0.3888743495981828</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8010513933687822</v>
+        <v>1.923233463833472</v>
       </c>
       <c r="O16">
-        <v>2.031055640896227</v>
+        <v>4.226768889779095</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.564856249730809</v>
+        <v>0.841960181748874</v>
       </c>
       <c r="C17">
-        <v>0.1017863823461482</v>
+        <v>0.08458672665902611</v>
       </c>
       <c r="D17">
-        <v>0.1469789157919479</v>
+        <v>0.1647590669330441</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8592033057753241</v>
+        <v>1.683665908680915</v>
       </c>
       <c r="G17">
-        <v>0.0008105729025556853</v>
+        <v>0.00248390569674517</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4444159456328869</v>
+        <v>1.0457738002493</v>
       </c>
       <c r="J17">
-        <v>0.07723567762287331</v>
+        <v>0.1891227431034679</v>
       </c>
       <c r="K17">
-        <v>1.338381615279701</v>
+        <v>0.5356567098455685</v>
       </c>
       <c r="L17">
-        <v>0.3593133454998281</v>
+        <v>0.3860543303239439</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8176703227397617</v>
+        <v>1.930367992598273</v>
       </c>
       <c r="O17">
-        <v>2.013832137895719</v>
+        <v>4.232745442070808</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.526320566161502</v>
+        <v>0.8313403753164152</v>
       </c>
       <c r="C18">
-        <v>0.1003823369694885</v>
+        <v>0.08412020868008341</v>
       </c>
       <c r="D18">
-        <v>0.1439781788585606</v>
+        <v>0.1640810349318684</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8527054869105228</v>
+        <v>1.684308498201041</v>
       </c>
       <c r="G18">
-        <v>0.0008114033272051829</v>
+        <v>0.002484427598061885</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4441728269835714</v>
+        <v>1.047144699809987</v>
       </c>
       <c r="J18">
-        <v>0.07701886567767247</v>
+        <v>0.1892804605096288</v>
       </c>
       <c r="K18">
-        <v>1.3049582834511</v>
+        <v>0.5260308058562941</v>
       </c>
       <c r="L18">
-        <v>0.3519581427588179</v>
+        <v>0.3844465401089678</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8273497909062097</v>
+        <v>1.934527628206887</v>
       </c>
       <c r="O18">
-        <v>2.004331271550427</v>
+        <v>4.236365196893416</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.51328402277025</v>
+        <v>0.8277482641997551</v>
       </c>
       <c r="C19">
-        <v>0.09990704632185299</v>
+        <v>0.0839620297149466</v>
       </c>
       <c r="D19">
-        <v>0.1429638439791461</v>
+        <v>0.1638523924032143</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8505313947628395</v>
+        <v>1.68453826553344</v>
       </c>
       <c r="G19">
-        <v>0.0008116855961834979</v>
+        <v>0.002484605574137893</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4441053791992466</v>
+        <v>1.047616054430801</v>
       </c>
       <c r="J19">
-        <v>0.07694723988488761</v>
+        <v>0.1893348978284521</v>
       </c>
       <c r="K19">
-        <v>1.29364907677629</v>
+        <v>0.5227728732396599</v>
       </c>
       <c r="L19">
-        <v>0.3494730790967537</v>
+        <v>0.3839046157359576</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8306476053854901</v>
+        <v>1.935945635021239</v>
       </c>
       <c r="O19">
-        <v>2.001182926445409</v>
+        <v>4.237622086667955</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.571993659668379</v>
+        <v>0.8439273605214623</v>
       </c>
       <c r="C20">
-        <v>0.1020462889494169</v>
+        <v>0.08467296213181896</v>
       </c>
       <c r="D20">
-        <v>0.1475350837527429</v>
+        <v>0.1648849953588467</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8604183427753682</v>
+        <v>1.68355277211446</v>
       </c>
       <c r="G20">
-        <v>0.0008104197304078119</v>
+        <v>0.002483809706778004</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4444680573512017</v>
+        <v>1.045523492999436</v>
       </c>
       <c r="J20">
-        <v>0.0772766569632708</v>
+        <v>0.1890940455032784</v>
       </c>
       <c r="K20">
-        <v>1.344571109648228</v>
+        <v>0.5374388294881101</v>
       </c>
       <c r="L20">
-        <v>0.3606771679829137</v>
+        <v>0.3863530567011964</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8158886654219275</v>
+        <v>1.929602709590222</v>
       </c>
       <c r="O20">
-        <v>2.015623344274303</v>
+        <v>4.232090373222405</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.770079316850939</v>
+        <v>0.8985318215325719</v>
       </c>
       <c r="C21">
-        <v>0.1092430769153694</v>
+        <v>0.08704593581686026</v>
       </c>
       <c r="D21">
-        <v>0.1630150542197271</v>
+        <v>0.1684185486186323</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8955087575718466</v>
+        <v>1.681089268963433</v>
       </c>
       <c r="G21">
-        <v>0.0008062417574246084</v>
+        <v>0.002481223757216076</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4467539741174491</v>
+        <v>1.038992744165334</v>
       </c>
       <c r="J21">
-        <v>0.07851081166796803</v>
+        <v>0.1883568368625319</v>
       </c>
       <c r="K21">
-        <v>1.516230170126818</v>
+        <v>0.5867973577368275</v>
       </c>
       <c r="L21">
-        <v>0.398707846671897</v>
+        <v>0.3947488845565346</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7677592398394326</v>
+        <v>1.908960935257454</v>
       </c>
       <c r="O21">
-        <v>2.069077546045094</v>
+        <v>4.215680730888351</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.900238315055333</v>
+        <v>0.934397257121276</v>
       </c>
       <c r="C22">
-        <v>0.1139567044273306</v>
+        <v>0.08858504437361603</v>
       </c>
       <c r="D22">
-        <v>0.1732292188761448</v>
+        <v>0.1707753059955337</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9199177154201408</v>
+        <v>1.680109910033522</v>
       </c>
       <c r="G22">
-        <v>0.0008035654567120631</v>
+        <v>0.002479599059174147</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4490838233521046</v>
+        <v>1.035096793758349</v>
       </c>
       <c r="J22">
-        <v>0.07941637438419136</v>
+        <v>0.1879285776750343</v>
       </c>
       <c r="K22">
-        <v>1.62891135336605</v>
+        <v>0.6191144542147526</v>
       </c>
       <c r="L22">
-        <v>0.4238744184431908</v>
+        <v>0.4003614322311932</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7374295305077512</v>
+        <v>1.895969377647522</v>
       </c>
       <c r="O22">
-        <v>2.107902386533027</v>
+        <v>4.206576322537018</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.830700743254653</v>
+        <v>0.9152391625122789</v>
       </c>
       <c r="C23">
-        <v>0.1114398111072887</v>
+        <v>0.08776467587794201</v>
       </c>
       <c r="D23">
-        <v>0.1677683943677266</v>
+        <v>0.1695131532519554</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9067498751727499</v>
+        <v>1.680574972905404</v>
       </c>
       <c r="G23">
-        <v>0.0008049890023000069</v>
+        <v>0.002480460226158383</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4477611848409282</v>
+        <v>1.037142096272667</v>
       </c>
       <c r="J23">
-        <v>0.07892373477526604</v>
+        <v>0.1881522562286904</v>
       </c>
       <c r="K23">
-        <v>1.568721692227143</v>
+        <v>0.6018610797174517</v>
       </c>
       <c r="L23">
-        <v>0.4104125159643388</v>
+        <v>0.397354492636083</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7535115186740038</v>
+        <v>1.902857555352361</v>
       </c>
       <c r="O23">
-        <v>2.086811018614384</v>
+        <v>4.211287372183506</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.56876668493274</v>
+        <v>0.8430379495918316</v>
       </c>
       <c r="C24">
-        <v>0.1019287851521469</v>
+        <v>0.08463397980138865</v>
       </c>
       <c r="D24">
-        <v>0.1472836137057527</v>
+        <v>0.1648280473016968</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8598685561061288</v>
+        <v>1.683603699230808</v>
       </c>
       <c r="G24">
-        <v>0.0008104889585798802</v>
+        <v>0.002483853080114273</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4444442249259168</v>
+        <v>1.04563652463905</v>
       </c>
       <c r="J24">
-        <v>0.07725809783176274</v>
+        <v>0.1891070006815099</v>
       </c>
       <c r="K24">
-        <v>1.341772746950824</v>
+        <v>0.5366331247217317</v>
       </c>
       <c r="L24">
-        <v>0.3600604964215535</v>
+        <v>0.3862179605168734</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8166937638248335</v>
+        <v>1.929948513681948</v>
       </c>
       <c r="O24">
-        <v>2.014812293370511</v>
+        <v>4.232385957438453</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.288717720467929</v>
+        <v>0.7659500013709248</v>
       </c>
       <c r="C25">
-        <v>0.09169263152919882</v>
+        <v>0.08120709443146268</v>
       </c>
       <c r="D25">
-        <v>0.1255614826023503</v>
+        <v>0.1599806015982921</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8151238924787876</v>
+        <v>1.689585262566695</v>
       </c>
       <c r="G25">
-        <v>0.0008166657410405156</v>
+        <v>0.002487795171887663</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4441992305939912</v>
+        <v>1.056399809506246</v>
       </c>
       <c r="J25">
-        <v>0.07586065886562565</v>
+        <v>0.1903675967726883</v>
       </c>
       <c r="K25">
-        <v>1.098648960620096</v>
+        <v>0.4665466461734127</v>
       </c>
       <c r="L25">
-        <v>0.3069366596185574</v>
+        <v>0.3747493217197189</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8894346711461534</v>
+        <v>1.96131325726839</v>
       </c>
       <c r="O25">
-        <v>1.952516072602862</v>
+        <v>4.262111348657157</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7098885070416259</v>
+        <v>1.084091835351103</v>
       </c>
       <c r="C2">
-        <v>0.07864104582836262</v>
+        <v>0.08415349888365853</v>
       </c>
       <c r="D2">
-        <v>0.1565908986480764</v>
+        <v>0.1098412847926795</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.696331049648762</v>
+        <v>0.7866549969662131</v>
       </c>
       <c r="G2">
-        <v>0.002490942961933952</v>
+        <v>0.0008214362963833127</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.06570494582818</v>
+        <v>0.4466212604315807</v>
       </c>
       <c r="J2">
-        <v>0.1914952365474001</v>
+        <v>0.07514820743166695</v>
       </c>
       <c r="K2">
-        <v>0.4151878403228864</v>
+        <v>0.9205962726847758</v>
       </c>
       <c r="L2">
-        <v>0.3667765988833622</v>
+        <v>0.2686836126928682</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.986254401642821</v>
+        <v>0.9466996726575454</v>
       </c>
       <c r="O2">
-        <v>4.290002999546601</v>
+        <v>1.918481020060995</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6723398164128582</v>
+        <v>0.9461372397237824</v>
       </c>
       <c r="C3">
-        <v>0.07687536464467826</v>
+        <v>0.07903284825218293</v>
       </c>
       <c r="D3">
-        <v>0.1544067579605723</v>
+        <v>0.09933621821005545</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.702367124285772</v>
+        <v>0.7699073949857294</v>
       </c>
       <c r="G3">
-        <v>0.00249323044903841</v>
+        <v>0.0008248141191443101</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.072873905163434</v>
+        <v>0.4497637991461509</v>
       </c>
       <c r="J3">
-        <v>0.1923844011265778</v>
+        <v>0.07485032372023781</v>
       </c>
       <c r="K3">
-        <v>0.3805412918438265</v>
+        <v>0.8003057720026163</v>
       </c>
       <c r="L3">
-        <v>0.3616697045864186</v>
+        <v>0.2432228347763328</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.00431188527564</v>
+        <v>0.9877091266559361</v>
       </c>
       <c r="O3">
-        <v>4.312658234789382</v>
+        <v>1.902158350746021</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6495078773059788</v>
+        <v>0.8617108251737022</v>
       </c>
       <c r="C4">
-        <v>0.0757781368124455</v>
+        <v>0.07588023987997161</v>
       </c>
       <c r="D4">
-        <v>0.153121906508531</v>
+        <v>0.09295267484831271</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.706796981319542</v>
+        <v>0.7608040028064806</v>
       </c>
       <c r="G4">
-        <v>0.002494711434941876</v>
+        <v>0.0008269613634916059</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.077701877552371</v>
+        <v>0.4523958154388232</v>
       </c>
       <c r="J4">
-        <v>0.1929921663213463</v>
+        <v>0.07475478554502502</v>
       </c>
       <c r="K4">
-        <v>0.3593497618215338</v>
+        <v>0.7265668662056015</v>
       </c>
       <c r="L4">
-        <v>0.3586810303730488</v>
+        <v>0.2277959574725372</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.015969442555933</v>
+        <v>1.013939574517376</v>
       </c>
       <c r="O4">
-        <v>4.328422246415798</v>
+        <v>1.895264828769214</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.640260550521532</v>
+        <v>0.8273659918021679</v>
       </c>
       <c r="C5">
-        <v>0.07532773068972176</v>
+        <v>0.0745930011162983</v>
       </c>
       <c r="D5">
-        <v>0.1526125373765623</v>
+        <v>0.09036717805852845</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.70878439786955</v>
+        <v>0.7573802577195394</v>
       </c>
       <c r="G5">
-        <v>0.002495334230740354</v>
+        <v>0.0008278550563797707</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.079776584002772</v>
+        <v>0.4536396549713082</v>
       </c>
       <c r="J5">
-        <v>0.1932554075663937</v>
+        <v>0.07473727756460846</v>
       </c>
       <c r="K5">
-        <v>0.3507351545163431</v>
+        <v>0.696539048140167</v>
       </c>
       <c r="L5">
-        <v>0.3575002435648571</v>
+        <v>0.2215581444381343</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.020863431661582</v>
+        <v>1.024887765234188</v>
       </c>
       <c r="O5">
-        <v>4.335312740473086</v>
+        <v>1.893214575001821</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.638728496680983</v>
+        <v>0.8216663666165687</v>
       </c>
       <c r="C6">
-        <v>0.07525274363059253</v>
+        <v>0.07437909276846</v>
       </c>
       <c r="D6">
-        <v>0.1525288181601354</v>
+        <v>0.08993878998717975</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.709125419140264</v>
+        <v>0.75682871511993</v>
       </c>
       <c r="G6">
-        <v>0.002495438811862291</v>
+        <v>0.0008280045885338816</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.08012756902211</v>
+        <v>0.4538563851218846</v>
       </c>
       <c r="J6">
-        <v>0.1933000599148009</v>
+        <v>0.07473564890159068</v>
       </c>
       <c r="K6">
-        <v>0.349305998277174</v>
+        <v>0.6915539957662702</v>
       </c>
       <c r="L6">
-        <v>0.3573064216967623</v>
+        <v>0.2205252185088256</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.021684740072608</v>
+        <v>1.026721206812708</v>
       </c>
       <c r="O6">
-        <v>4.336485091686143</v>
+        <v>1.892919178007915</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6493829333203109</v>
+        <v>0.8612474106569437</v>
       </c>
       <c r="C7">
-        <v>0.07577207572475686</v>
+        <v>0.07586289044512284</v>
       </c>
       <c r="D7">
-        <v>0.1531149793014279</v>
+        <v>0.09291774292284316</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.706823046221395</v>
+        <v>0.7607566849191514</v>
       </c>
       <c r="G7">
-        <v>0.002494719756043959</v>
+        <v>0.0008269733402296923</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.077729423315031</v>
+        <v>0.4524119037555963</v>
       </c>
       <c r="J7">
-        <v>0.1929956533965758</v>
+        <v>0.07475446338056457</v>
       </c>
       <c r="K7">
-        <v>0.3592334959373886</v>
+        <v>0.7261618252298376</v>
       </c>
       <c r="L7">
-        <v>0.3586649553458727</v>
+        <v>0.2277116386544833</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.016034863739929</v>
+        <v>1.014086183225305</v>
       </c>
       <c r="O7">
-        <v>4.328513284494477</v>
+        <v>1.895234141390148</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6968958623337187</v>
+        <v>1.036460897487927</v>
       </c>
       <c r="C8">
-        <v>0.07803496502012308</v>
+        <v>0.08238942319395193</v>
       </c>
       <c r="D8">
-        <v>0.1558261863672854</v>
+        <v>0.1062047548890348</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.698262228507211</v>
+        <v>0.7806289954112344</v>
       </c>
       <c r="G8">
-        <v>0.002491715851983011</v>
+        <v>0.0008225859237037759</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.068088402379143</v>
+        <v>0.4475557013522184</v>
       </c>
       <c r="J8">
-        <v>0.1917890077348225</v>
+        <v>0.07502703025407342</v>
       </c>
       <c r="K8">
-        <v>0.4032251231651571</v>
+        <v>0.8790897512440097</v>
       </c>
       <c r="L8">
-        <v>0.3649853316194793</v>
+        <v>0.2598600510653029</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.992362317538773</v>
+        <v>0.9606185870485078</v>
       </c>
       <c r="O8">
-        <v>4.297430061855465</v>
+        <v>1.912186481015212</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7918099514203334</v>
+        <v>1.382772134391018</v>
       </c>
       <c r="C9">
-        <v>0.08236811154957735</v>
+        <v>0.09513965831060744</v>
       </c>
       <c r="D9">
-        <v>0.1615857444580655</v>
+        <v>0.1328330281260577</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.687207101441018</v>
+        <v>0.8294666164027191</v>
       </c>
       <c r="G9">
-        <v>0.002486429336515674</v>
+        <v>0.0008145513141086802</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.052560021999643</v>
+        <v>0.4438605213496842</v>
       </c>
       <c r="J9">
-        <v>0.1899120462737258</v>
+        <v>0.07628049802296033</v>
       </c>
       <c r="K9">
-        <v>0.4901180793824267</v>
+        <v>1.180365911198948</v>
       </c>
       <c r="L9">
-        <v>0.378539566834462</v>
+        <v>0.3246873470154696</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.950461308353457</v>
+        <v>0.8643405756017515</v>
       </c>
       <c r="O9">
-        <v>4.251166382742412</v>
+        <v>1.971573711598495</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8625734577283311</v>
+        <v>1.639637835572216</v>
       </c>
       <c r="C10">
-        <v>0.08548765853898743</v>
+        <v>0.1045073842136972</v>
       </c>
       <c r="D10">
-        <v>0.1660835684304232</v>
+        <v>0.1528118784084427</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.682568323281416</v>
+        <v>0.8721085755768527</v>
       </c>
       <c r="G10">
-        <v>0.002482910070171381</v>
+        <v>0.0008089775381635579</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.043205129972762</v>
+        <v>0.4450691946786023</v>
       </c>
       <c r="J10">
-        <v>0.1888297480673842</v>
+        <v>0.07767744959953049</v>
       </c>
       <c r="K10">
-        <v>0.5543166396610388</v>
+        <v>1.40321610650858</v>
       </c>
       <c r="L10">
-        <v>0.3891980550330771</v>
+        <v>0.3736257334187911</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.922426958398121</v>
+        <v>0.7991715811262621</v>
       </c>
       <c r="O10">
-        <v>4.226111604660844</v>
+        <v>2.033076843033854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8949830498382596</v>
+        <v>1.757204641359124</v>
       </c>
       <c r="C11">
-        <v>0.08689285430975957</v>
+        <v>0.1087762151275626</v>
       </c>
       <c r="D11">
-        <v>0.1681868089715408</v>
+        <v>0.1620064572944528</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.68121211944954</v>
+        <v>0.8931506674075109</v>
       </c>
       <c r="G11">
-        <v>0.002481387507693591</v>
+        <v>0.0008065092848977188</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.039394222359434</v>
+        <v>0.4465579892360907</v>
       </c>
       <c r="J11">
-        <v>0.1884014831653396</v>
+        <v>0.07842515767318403</v>
       </c>
       <c r="K11">
-        <v>0.5835955177280994</v>
+        <v>1.505079688016707</v>
       </c>
       <c r="L11">
-        <v>0.3941975203448322</v>
+        <v>0.3962258615662648</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.910269407163038</v>
+        <v>0.7708131703932013</v>
       </c>
       <c r="O11">
-        <v>4.21664958291916</v>
+        <v>2.065391567488746</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9072865085987019</v>
+        <v>1.801843135810913</v>
       </c>
       <c r="C12">
-        <v>0.0874229541388658</v>
+        <v>0.110394408017001</v>
       </c>
       <c r="D12">
-        <v>0.1689913952262003</v>
+        <v>0.1655047925446382</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.68080677268766</v>
+        <v>0.9013706230597904</v>
       </c>
       <c r="G12">
-        <v>0.002480822165392724</v>
+        <v>0.0008055839469546291</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.038014987942077</v>
+        <v>0.4472644948642923</v>
       </c>
       <c r="J12">
-        <v>0.1882484976141754</v>
+        <v>0.07872521093355545</v>
       </c>
       <c r="K12">
-        <v>0.5946928724337113</v>
+        <v>1.54373647851304</v>
       </c>
       <c r="L12">
-        <v>0.3961122348914188</v>
+        <v>0.4048370621821391</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.905751222301125</v>
+        <v>0.7602669338931713</v>
       </c>
       <c r="O12">
-        <v>4.213344519954575</v>
+        <v>2.078292220246567</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.904635388696164</v>
+        <v>1.792223911639923</v>
       </c>
       <c r="C13">
-        <v>0.0873088776680504</v>
+        <v>0.1100458162098548</v>
       </c>
       <c r="D13">
-        <v>0.168817752733176</v>
+        <v>0.1647506060969874</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.680889261614155</v>
+        <v>0.8995888561486112</v>
       </c>
       <c r="G13">
-        <v>0.00248094342373947</v>
+        <v>0.0008057828254196005</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.038309191081346</v>
+        <v>0.4471058604053013</v>
       </c>
       <c r="J13">
-        <v>0.1882810375051314</v>
+        <v>0.07865982409294503</v>
       </c>
       <c r="K13">
-        <v>0.5923024206733771</v>
+        <v>1.535407125509238</v>
       </c>
       <c r="L13">
-        <v>0.3956989121906105</v>
+        <v>0.402980054054666</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.906720486496715</v>
+        <v>0.7625295720460272</v>
       </c>
       <c r="O13">
-        <v>4.214043965499911</v>
+        <v>2.07548364605455</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8959946532899608</v>
+        <v>1.760874610695907</v>
       </c>
       <c r="C14">
-        <v>0.08693650647700935</v>
+        <v>0.1089093074750451</v>
       </c>
       <c r="D14">
-        <v>0.1682528402193384</v>
+        <v>0.1622939281265872</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.681176603654109</v>
+        <v>0.8938217908526838</v>
       </c>
       <c r="G14">
-        <v>0.002481340772146167</v>
+        <v>0.0008064329717091185</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.03927947219664</v>
+        <v>0.4466132074885039</v>
       </c>
       <c r="J14">
-        <v>0.1883887129339392</v>
+        <v>0.0784494996875118</v>
       </c>
       <c r="K14">
-        <v>0.5845083055210409</v>
+        <v>1.508258258436399</v>
       </c>
       <c r="L14">
-        <v>0.3943546146264367</v>
+        <v>0.3969332211040495</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.909895977518105</v>
+        <v>0.769941623840694</v>
       </c>
       <c r="O14">
-        <v>4.216372103748114</v>
+        <v>2.066439370019651</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8907059201870595</v>
+        <v>1.741688163653663</v>
       </c>
       <c r="C15">
-        <v>0.08670815511599272</v>
+        <v>0.1082134008496496</v>
       </c>
       <c r="D15">
-        <v>0.1679078718637754</v>
+        <v>0.1607913365835856</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.681366696037756</v>
+        <v>0.8903225570413014</v>
       </c>
       <c r="G15">
-        <v>0.00248158561907712</v>
+        <v>0.0008068324104976123</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.039882113525735</v>
+        <v>0.4463302680420114</v>
       </c>
       <c r="J15">
-        <v>0.1884558631832043</v>
+        <v>0.07832289617078203</v>
       </c>
       <c r="K15">
-        <v>0.5797354781424531</v>
+        <v>1.491640041064528</v>
       </c>
       <c r="L15">
-        <v>0.3935339918009788</v>
+        <v>0.3932364031647637</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.911852207106408</v>
+        <v>0.7745070121357074</v>
       </c>
       <c r="O15">
-        <v>4.217834349683301</v>
+        <v>2.060987166923553</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8604597488642014</v>
+        <v>1.631970291083292</v>
       </c>
       <c r="C16">
-        <v>0.08539554439159502</v>
+        <v>0.1042286064657247</v>
       </c>
       <c r="D16">
-        <v>0.1659472596524125</v>
+        <v>0.1522132346292722</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.682672109180942</v>
+        <v>0.8707677995524818</v>
       </c>
       <c r="G16">
-        <v>0.002483011145903311</v>
+        <v>0.0008091401696339531</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.043463123780725</v>
+        <v>0.4449914412575353</v>
       </c>
       <c r="J16">
-        <v>0.1888590234374803</v>
+        <v>0.07763090858552602</v>
       </c>
       <c r="K16">
-        <v>0.5524046420921422</v>
+        <v>1.396569999461121</v>
       </c>
       <c r="L16">
-        <v>0.3888743495981828</v>
+        <v>0.3721559332245761</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.923233463833472</v>
+        <v>0.8010513933687742</v>
       </c>
       <c r="O16">
-        <v>4.226768889779095</v>
+        <v>2.031055640896255</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.841960181748874</v>
+        <v>1.564856249730781</v>
       </c>
       <c r="C17">
-        <v>0.08458672665902611</v>
+        <v>0.1017863823458356</v>
       </c>
       <c r="D17">
-        <v>0.1647590669330441</v>
+        <v>0.1469789157919905</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.683665908680915</v>
+        <v>0.8592033057753241</v>
       </c>
       <c r="G17">
-        <v>0.00248390569674517</v>
+        <v>0.0008105729025798063</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.0457738002493</v>
+        <v>0.4444159456328904</v>
       </c>
       <c r="J17">
-        <v>0.1891227431034679</v>
+        <v>0.07723567762292305</v>
       </c>
       <c r="K17">
-        <v>0.5356567098455685</v>
+        <v>1.338381615279758</v>
       </c>
       <c r="L17">
-        <v>0.3860543303239439</v>
+        <v>0.3593133454998281</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.930367992598273</v>
+        <v>0.8176703227398319</v>
       </c>
       <c r="O17">
-        <v>4.232745442070808</v>
+        <v>2.013832137895747</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8313403753164152</v>
+        <v>1.526320566161502</v>
       </c>
       <c r="C18">
-        <v>0.08412020868008341</v>
+        <v>0.1003823369699148</v>
       </c>
       <c r="D18">
-        <v>0.1640810349318684</v>
+        <v>0.1439781788583332</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.684308498201041</v>
+        <v>0.8527054869105299</v>
       </c>
       <c r="G18">
-        <v>0.002484427598061885</v>
+        <v>0.0008114033272392297</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.047144699809987</v>
+        <v>0.4441728269835643</v>
       </c>
       <c r="J18">
-        <v>0.1892804605096288</v>
+        <v>0.07701886567767247</v>
       </c>
       <c r="K18">
-        <v>0.5260308058562941</v>
+        <v>1.3049582834511</v>
       </c>
       <c r="L18">
-        <v>0.3844465401089678</v>
+        <v>0.3519581427587468</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.934527628206887</v>
+        <v>0.8273497909062124</v>
       </c>
       <c r="O18">
-        <v>4.236365196893416</v>
+        <v>2.004331271550399</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8277482641997551</v>
+        <v>1.513284022770137</v>
       </c>
       <c r="C19">
-        <v>0.0839620297149466</v>
+        <v>0.09990704632183878</v>
       </c>
       <c r="D19">
-        <v>0.1638523924032143</v>
+        <v>0.142963843979075</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.68453826553344</v>
+        <v>0.8505313947628395</v>
       </c>
       <c r="G19">
-        <v>0.002484605574137893</v>
+        <v>0.0008116855961770625</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.047616054430801</v>
+        <v>0.4441053791992609</v>
       </c>
       <c r="J19">
-        <v>0.1893348978284521</v>
+        <v>0.07694723988486984</v>
       </c>
       <c r="K19">
-        <v>0.5227728732396599</v>
+        <v>1.293649076776319</v>
       </c>
       <c r="L19">
-        <v>0.3839046157359576</v>
+        <v>0.3494730790968674</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.935945635021239</v>
+        <v>0.8306476053855425</v>
       </c>
       <c r="O19">
-        <v>4.237622086667955</v>
+        <v>2.001182926445409</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8439273605214623</v>
+        <v>1.571993659668351</v>
       </c>
       <c r="C20">
-        <v>0.08467296213181896</v>
+        <v>0.1020462889494169</v>
       </c>
       <c r="D20">
-        <v>0.1648849953588467</v>
+        <v>0.1475350837527429</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.68355277211446</v>
+        <v>0.8604183427753895</v>
       </c>
       <c r="G20">
-        <v>0.002483809706778004</v>
+        <v>0.0008104197304362757</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.045523492999436</v>
+        <v>0.4444680573512052</v>
       </c>
       <c r="J20">
-        <v>0.1890940455032784</v>
+        <v>0.07727665696322106</v>
       </c>
       <c r="K20">
-        <v>0.5374388294881101</v>
+        <v>1.344571109648257</v>
       </c>
       <c r="L20">
-        <v>0.3863530567011964</v>
+        <v>0.3606771679829279</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.929602709590222</v>
+        <v>0.8158886654219737</v>
       </c>
       <c r="O20">
-        <v>4.232090373222405</v>
+        <v>2.015623344274331</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8985318215325719</v>
+        <v>1.770079316850939</v>
       </c>
       <c r="C21">
-        <v>0.08704593581686026</v>
+        <v>0.1092430769152202</v>
       </c>
       <c r="D21">
-        <v>0.1684185486186323</v>
+        <v>0.1630150542197129</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.681089268963433</v>
+        <v>0.8955087575718608</v>
       </c>
       <c r="G21">
-        <v>0.002481223757216076</v>
+        <v>0.000806241757395635</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.038992744165334</v>
+        <v>0.446753974117442</v>
       </c>
       <c r="J21">
-        <v>0.1883568368625319</v>
+        <v>0.07851081166791118</v>
       </c>
       <c r="K21">
-        <v>0.5867973577368275</v>
+        <v>1.516230170126789</v>
       </c>
       <c r="L21">
-        <v>0.3947488845565346</v>
+        <v>0.3987078466718827</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.908960935257454</v>
+        <v>0.7677592398394921</v>
       </c>
       <c r="O21">
-        <v>4.215680730888351</v>
+        <v>2.069077546045065</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.934397257121276</v>
+        <v>1.900238315055475</v>
       </c>
       <c r="C22">
-        <v>0.08858504437361603</v>
+        <v>0.1139567044273377</v>
       </c>
       <c r="D22">
-        <v>0.1707753059955337</v>
+        <v>0.1732292188762727</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.680109910033522</v>
+        <v>0.919917715420155</v>
       </c>
       <c r="G22">
-        <v>0.002479599059174147</v>
+        <v>0.0008035654567340674</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.035096793758349</v>
+        <v>0.4490838233521117</v>
       </c>
       <c r="J22">
-        <v>0.1879285776750343</v>
+        <v>0.07941637438422333</v>
       </c>
       <c r="K22">
-        <v>0.6191144542147526</v>
+        <v>1.628911353365993</v>
       </c>
       <c r="L22">
-        <v>0.4003614322311932</v>
+        <v>0.4238744184432477</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.895969377647522</v>
+        <v>0.737429530507737</v>
       </c>
       <c r="O22">
-        <v>4.206576322537018</v>
+        <v>2.10790238653297</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9152391625122789</v>
+        <v>1.830700743254539</v>
       </c>
       <c r="C23">
-        <v>0.08776467587794201</v>
+        <v>0.1114398111068269</v>
       </c>
       <c r="D23">
-        <v>0.1695131532519554</v>
+        <v>0.1677683943678261</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.680574972905404</v>
+        <v>0.9067498751727783</v>
       </c>
       <c r="G23">
-        <v>0.002480460226158383</v>
+        <v>0.0008049890022989082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.037142096272667</v>
+        <v>0.4477611848409353</v>
       </c>
       <c r="J23">
-        <v>0.1881522562286904</v>
+        <v>0.07892373477526249</v>
       </c>
       <c r="K23">
-        <v>0.6018610797174517</v>
+        <v>1.56872169222703</v>
       </c>
       <c r="L23">
-        <v>0.397354492636083</v>
+        <v>0.4104125159642678</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.902857555352361</v>
+        <v>0.7535115186739993</v>
       </c>
       <c r="O23">
-        <v>4.211287372183506</v>
+        <v>2.086811018614327</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8430379495918316</v>
+        <v>1.568766684932655</v>
       </c>
       <c r="C24">
-        <v>0.08463397980138865</v>
+        <v>0.1019287851517205</v>
       </c>
       <c r="D24">
-        <v>0.1648280473016968</v>
+        <v>0.1472836137058238</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.683603699230808</v>
+        <v>0.8598685561061146</v>
       </c>
       <c r="G24">
-        <v>0.002483853080114273</v>
+        <v>0.0008104889586045827</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.04563652463905</v>
+        <v>0.4444442249259204</v>
       </c>
       <c r="J24">
-        <v>0.1891070006815099</v>
+        <v>0.0772580978317059</v>
       </c>
       <c r="K24">
-        <v>0.5366331247217317</v>
+        <v>1.341772746950767</v>
       </c>
       <c r="L24">
-        <v>0.3862179605168734</v>
+        <v>0.3600604964216529</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.929948513681948</v>
+        <v>0.8166937638247624</v>
       </c>
       <c r="O24">
-        <v>4.232385957438453</v>
+        <v>2.014812293370426</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7659500013709248</v>
+        <v>1.288717720467872</v>
       </c>
       <c r="C25">
-        <v>0.08120709443146268</v>
+        <v>0.09169263152936225</v>
       </c>
       <c r="D25">
-        <v>0.1599806015982921</v>
+        <v>0.1255614826022651</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.689585262566695</v>
+        <v>0.8151238924787947</v>
       </c>
       <c r="G25">
-        <v>0.002487795171887663</v>
+        <v>0.0008166657409452982</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.056399809506246</v>
+        <v>0.4441992305939984</v>
       </c>
       <c r="J25">
-        <v>0.1903675967726883</v>
+        <v>0.07586065886571447</v>
       </c>
       <c r="K25">
-        <v>0.4665466461734127</v>
+        <v>1.098648960619983</v>
       </c>
       <c r="L25">
-        <v>0.3747493217197189</v>
+        <v>0.3069366596184722</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.96131325726839</v>
+        <v>0.8894346711461552</v>
       </c>
       <c r="O25">
-        <v>4.262111348657157</v>
+        <v>1.952516072602862</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.084091835351103</v>
+        <v>1.98022727312852</v>
       </c>
       <c r="C2">
-        <v>0.08415349888365853</v>
+        <v>0.5774028030875229</v>
       </c>
       <c r="D2">
-        <v>0.1098412847926795</v>
+        <v>0.07475965342466395</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7866549969662131</v>
+        <v>0.2648977637700938</v>
       </c>
       <c r="G2">
-        <v>0.0008214362963833127</v>
+        <v>0.163156640467939</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4466212604315807</v>
+        <v>0.009826165645093088</v>
       </c>
       <c r="J2">
-        <v>0.07514820743166695</v>
+        <v>0.1542030672447297</v>
       </c>
       <c r="K2">
-        <v>0.9205962726847758</v>
+        <v>0.1060049383777262</v>
       </c>
       <c r="L2">
-        <v>0.2686836126928682</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9466996726575454</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.918481020060995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0.9577430848954123</v>
+      </c>
+      <c r="Q2">
+        <v>0.6197022919799906</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9461372397237824</v>
+        <v>1.728669218486317</v>
       </c>
       <c r="C3">
-        <v>0.07903284825218293</v>
+        <v>0.5169173769909037</v>
       </c>
       <c r="D3">
-        <v>0.09933621821005545</v>
+        <v>0.06533689920308206</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.7699073949857294</v>
+        <v>0.2438796206989409</v>
       </c>
       <c r="G3">
-        <v>0.0008248141191443101</v>
+        <v>0.1503612702268384</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4497637991461509</v>
+        <v>0.007927122167081357</v>
       </c>
       <c r="J3">
-        <v>0.07485032372023781</v>
+        <v>0.1523434716182734</v>
       </c>
       <c r="K3">
-        <v>0.8003057720026163</v>
+        <v>0.111247084139432</v>
       </c>
       <c r="L3">
-        <v>0.2432228347763328</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9877091266559361</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.902158350746021</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.9174386171025333</v>
+      </c>
+      <c r="Q3">
+        <v>0.5884184618225561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8617108251737022</v>
+        <v>1.573384059026466</v>
       </c>
       <c r="C4">
-        <v>0.07588023987997161</v>
+        <v>0.4799129124953936</v>
       </c>
       <c r="D4">
-        <v>0.09295267484831271</v>
+        <v>0.05956296939099559</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7608040028064806</v>
+        <v>0.2313524873423489</v>
       </c>
       <c r="G4">
-        <v>0.0008269613634916059</v>
+        <v>0.1428036580224799</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4523958154388232</v>
+        <v>0.006851540789245103</v>
       </c>
       <c r="J4">
-        <v>0.07475478554502502</v>
+        <v>0.1514300068479031</v>
       </c>
       <c r="K4">
-        <v>0.7265668662056015</v>
+        <v>0.1147132839202296</v>
       </c>
       <c r="L4">
-        <v>0.2277959574725372</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.013939574517376</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.895264828769214</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.8934558587239394</v>
+      </c>
+      <c r="Q4">
+        <v>0.5703143531837043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8273659918021679</v>
+        <v>1.50898596822222</v>
       </c>
       <c r="C5">
-        <v>0.0745930011162983</v>
+        <v>0.4655334598382979</v>
       </c>
       <c r="D5">
-        <v>0.09036717805852845</v>
+        <v>0.05726402306860479</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7573802577195394</v>
+        <v>0.2260878686069532</v>
       </c>
       <c r="G5">
-        <v>0.0008278550563797707</v>
+        <v>0.1395642502176315</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4536396549713082</v>
+        <v>0.006484026446098134</v>
       </c>
       <c r="J5">
-        <v>0.07473727756460846</v>
+        <v>0.1509931233956294</v>
       </c>
       <c r="K5">
-        <v>0.696539048140167</v>
+        <v>0.116061137666712</v>
       </c>
       <c r="L5">
-        <v>0.2215581444381343</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.024887765234188</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.893214575001821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.8844602423145744</v>
+      </c>
+      <c r="Q5">
+        <v>0.5624609303736889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8216663666165687</v>
+        <v>1.497165743769699</v>
       </c>
       <c r="C6">
-        <v>0.07437909276846</v>
+        <v>0.4639699153365768</v>
       </c>
       <c r="D6">
-        <v>0.08993878998717975</v>
+        <v>0.05694561969743717</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.75682871511993</v>
+        <v>0.2249142274183384</v>
       </c>
       <c r="G6">
-        <v>0.0008280045885338816</v>
+        <v>0.1387494943998036</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.4538563851218846</v>
+        <v>0.006492607425893304</v>
       </c>
       <c r="J6">
-        <v>0.07473564890159068</v>
+        <v>0.150777243982489</v>
       </c>
       <c r="K6">
-        <v>0.6915539957662702</v>
+        <v>0.1161365636126312</v>
       </c>
       <c r="L6">
-        <v>0.2205252185088256</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.026721206812708</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.892919178007915</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8837036258620259</v>
+      </c>
+      <c r="Q6">
+        <v>0.5602693719958012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8612474106569437</v>
+        <v>1.569462456870667</v>
       </c>
       <c r="C7">
-        <v>0.07586289044512284</v>
+        <v>0.4819715238269566</v>
       </c>
       <c r="D7">
-        <v>0.09291774292284316</v>
+        <v>0.05970500590274952</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7607566849191514</v>
+        <v>0.2304480120445618</v>
       </c>
       <c r="G7">
-        <v>0.0008269733402296923</v>
+        <v>0.1419913681788287</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4524119037555963</v>
+        <v>0.007019614841988542</v>
       </c>
       <c r="J7">
-        <v>0.07475446338056457</v>
+        <v>0.1510235988311379</v>
       </c>
       <c r="K7">
-        <v>0.7261618252298376</v>
+        <v>0.1143169421419845</v>
       </c>
       <c r="L7">
-        <v>0.2277116386544833</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.014086183225305</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.895234141390148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.8953305561607152</v>
+      </c>
+      <c r="Q7">
+        <v>0.5677395161640106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.036460897487927</v>
+        <v>1.889580387230097</v>
       </c>
       <c r="C8">
-        <v>0.08238942319395193</v>
+        <v>0.5595292978134978</v>
       </c>
       <c r="D8">
-        <v>0.1062047548890348</v>
+        <v>0.07173887230683107</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7806289954112344</v>
+        <v>0.2564633046684648</v>
       </c>
       <c r="G8">
-        <v>0.0008225859237037759</v>
+        <v>0.1576603889353336</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.4475557013522184</v>
+        <v>0.009358618877700842</v>
       </c>
       <c r="J8">
-        <v>0.07502703025407342</v>
+        <v>0.1529845989888656</v>
       </c>
       <c r="K8">
-        <v>0.8790897512440097</v>
+        <v>0.1072170994389978</v>
       </c>
       <c r="L8">
-        <v>0.2598600510653029</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9606185870485078</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.912186481015212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.9463866843204727</v>
+      </c>
+      <c r="Q8">
+        <v>0.6054084973291367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.382772134391018</v>
+        <v>2.516324686868813</v>
       </c>
       <c r="C9">
-        <v>0.09513965831060744</v>
+        <v>0.7088027040400675</v>
       </c>
       <c r="D9">
-        <v>0.1328330281260577</v>
+        <v>0.09514350420118234</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8294666164027191</v>
+        <v>0.3122446241793995</v>
       </c>
       <c r="G9">
-        <v>0.0008145513141086802</v>
+        <v>0.1923721608177615</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4438605213496842</v>
+        <v>0.0144892647746433</v>
       </c>
       <c r="J9">
-        <v>0.07628049802296033</v>
+        <v>0.1594576099247007</v>
       </c>
       <c r="K9">
-        <v>1.180365911198948</v>
+        <v>0.09609309643743913</v>
       </c>
       <c r="L9">
-        <v>0.3246873470154696</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8643405756017515</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>1.971573711598495</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>1.049208731199144</v>
+      </c>
+      <c r="Q9">
+        <v>0.6931708492316773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.639637835572216</v>
+        <v>2.971342926852515</v>
       </c>
       <c r="C10">
-        <v>0.1045073842136972</v>
+        <v>0.8207204798494558</v>
       </c>
       <c r="D10">
-        <v>0.1528118784084427</v>
+        <v>0.1125401946954554</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8721085755768527</v>
+        <v>0.3551967711645787</v>
       </c>
       <c r="G10">
-        <v>0.0008089775381635579</v>
+        <v>0.2194208692772222</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4450691946786023</v>
+        <v>0.0189641152281661</v>
       </c>
       <c r="J10">
-        <v>0.07767744959953049</v>
+        <v>0.1653304655791672</v>
       </c>
       <c r="K10">
-        <v>1.40321610650858</v>
+        <v>0.08913155082275459</v>
       </c>
       <c r="L10">
-        <v>0.3736257334187911</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7991715811262621</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.033076843033854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>1.130182868127818</v>
+      </c>
+      <c r="Q10">
+        <v>0.7632321385913059</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.757204641359124</v>
+        <v>3.172352525654105</v>
       </c>
       <c r="C11">
-        <v>0.1087762151275626</v>
+        <v>0.8757881276146691</v>
       </c>
       <c r="D11">
-        <v>0.1620064572944528</v>
+        <v>0.120780737022514</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8931506674075109</v>
+        <v>0.3739729287759062</v>
       </c>
       <c r="G11">
-        <v>0.0008065092848977188</v>
+        <v>0.2309605548791467</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4465579892360907</v>
+        <v>0.02146154375481224</v>
       </c>
       <c r="J11">
-        <v>0.07842515767318403</v>
+        <v>0.1676745417585153</v>
       </c>
       <c r="K11">
-        <v>1.505079688016707</v>
+        <v>0.08566162610192229</v>
       </c>
       <c r="L11">
-        <v>0.3962258615662648</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7708131703932013</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.065391567488746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>1.17163866262095</v>
+      </c>
+      <c r="Q11">
+        <v>0.7927883005110345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.801843135810913</v>
+        <v>3.251096797790808</v>
       </c>
       <c r="C12">
-        <v>0.110394408017001</v>
+        <v>0.8946597331659234</v>
       </c>
       <c r="D12">
-        <v>0.1655047925446382</v>
+        <v>0.1237520596940271</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9013706230597904</v>
+        <v>0.3819080904442345</v>
       </c>
       <c r="G12">
-        <v>0.0008055839469546291</v>
+        <v>0.2360804859135897</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4472644948642923</v>
+        <v>0.02227823023393238</v>
       </c>
       <c r="J12">
-        <v>0.07872521093355545</v>
+        <v>0.1689559079447349</v>
       </c>
       <c r="K12">
-        <v>1.54373647851304</v>
+        <v>0.0847438249178829</v>
       </c>
       <c r="L12">
-        <v>0.4048370621821391</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7602669338931713</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.078292220246567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>1.185626227867075</v>
+      </c>
+      <c r="Q12">
+        <v>0.8063944633528877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.792223911639923</v>
+        <v>3.234695735611069</v>
       </c>
       <c r="C13">
-        <v>0.1100458162098548</v>
+        <v>0.8901822899152307</v>
       </c>
       <c r="D13">
-        <v>0.1647506060969874</v>
+        <v>0.1230806124443689</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8995888561486112</v>
+        <v>0.3803415047759628</v>
       </c>
       <c r="G13">
-        <v>0.0008057828254196005</v>
+        <v>0.2351092477662604</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4471058604053013</v>
+        <v>0.02206696555132126</v>
       </c>
       <c r="J13">
-        <v>0.07865982409294503</v>
+        <v>0.1687469520610705</v>
       </c>
       <c r="K13">
-        <v>1.535407125509238</v>
+        <v>0.08500787383073849</v>
       </c>
       <c r="L13">
-        <v>0.402980054054666</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7625295720460272</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.07548364605455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1.182226645730381</v>
+      </c>
+      <c r="Q13">
+        <v>0.8038831729233493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.760874610695907</v>
+        <v>3.179067835930539</v>
       </c>
       <c r="C14">
-        <v>0.1089093074750451</v>
+        <v>0.8771652335936722</v>
       </c>
       <c r="D14">
-        <v>0.1622939281265872</v>
+        <v>0.1210117989573263</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8938217908526838</v>
+        <v>0.3746861329392246</v>
       </c>
       <c r="G14">
-        <v>0.0008064329717091185</v>
+        <v>0.2314375085450493</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4466132074885039</v>
+        <v>0.02151339138649178</v>
       </c>
       <c r="J14">
-        <v>0.0784494996875118</v>
+        <v>0.1678083766293028</v>
       </c>
       <c r="K14">
-        <v>1.508258258436399</v>
+        <v>0.08561427097138719</v>
       </c>
       <c r="L14">
-        <v>0.3969332211040495</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.769941623840694</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.066439370019651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1.172625013460149</v>
+      </c>
+      <c r="Q14">
+        <v>0.7940853870478151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.741688163653663</v>
+        <v>3.143892344210599</v>
       </c>
       <c r="C15">
-        <v>0.1082134008496496</v>
+        <v>0.8700071166416024</v>
       </c>
       <c r="D15">
-        <v>0.1607913365835856</v>
+        <v>0.1198068599000379</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8903225570413014</v>
+        <v>0.370945919021004</v>
       </c>
       <c r="G15">
-        <v>0.0008068324104976123</v>
+        <v>0.2289332224819702</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4463302680420114</v>
+        <v>0.0212491529183394</v>
       </c>
       <c r="J15">
-        <v>0.07832289617078203</v>
+        <v>0.1671036118394014</v>
       </c>
       <c r="K15">
-        <v>1.491640041064528</v>
+        <v>0.08585723871777518</v>
       </c>
       <c r="L15">
-        <v>0.3932364031647637</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7745070121357074</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.060987166923553</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1.167511165461818</v>
+      </c>
+      <c r="Q15">
+        <v>0.7872706959946498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.631970291083292</v>
+        <v>2.949046235771334</v>
       </c>
       <c r="C16">
-        <v>0.1042286064657247</v>
+        <v>0.8239159016113433</v>
       </c>
       <c r="D16">
-        <v>0.1522132346292722</v>
+        <v>0.1125194735402175</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8707677995524818</v>
+        <v>0.3515479325663478</v>
       </c>
       <c r="G16">
-        <v>0.0008091401696339531</v>
+        <v>0.2164364061714963</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.4449914412575353</v>
+        <v>0.01934959912248235</v>
       </c>
       <c r="J16">
-        <v>0.07763090858552602</v>
+        <v>0.1640331268102102</v>
       </c>
       <c r="K16">
-        <v>1.396569999461121</v>
+        <v>0.08821687549634483</v>
       </c>
       <c r="L16">
-        <v>0.3721559332245761</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8010513933687742</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.031055640896255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1.13374489216551</v>
+      </c>
+      <c r="Q16">
+        <v>0.7541754086152253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.564856249730781</v>
+        <v>2.829354152626308</v>
       </c>
       <c r="C17">
-        <v>0.1017863823458356</v>
+        <v>0.7956933374678954</v>
       </c>
       <c r="D17">
-        <v>0.1469789157919905</v>
+        <v>0.1080557929864767</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8592033057753241</v>
+        <v>0.3398207469609105</v>
       </c>
       <c r="G17">
-        <v>0.0008105729025798063</v>
+        <v>0.2089128497586117</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4444159456328904</v>
+        <v>0.01823419385484115</v>
       </c>
       <c r="J17">
-        <v>0.07723567762292305</v>
+        <v>0.1622384919613467</v>
       </c>
       <c r="K17">
-        <v>1.338381615279758</v>
+        <v>0.08975849318563611</v>
       </c>
       <c r="L17">
-        <v>0.3593133454998281</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8176703227398319</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.013832137895747</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1.11327593669283</v>
+      </c>
+      <c r="Q17">
+        <v>0.7343598446335733</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.526320566161502</v>
+        <v>2.763209459857933</v>
       </c>
       <c r="C18">
-        <v>0.1003823369699148</v>
+        <v>0.777422829367282</v>
       </c>
       <c r="D18">
-        <v>0.1439781788583332</v>
+        <v>0.1053342696521611</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8527054869105299</v>
+        <v>0.3338721673216583</v>
       </c>
       <c r="G18">
-        <v>0.0008114033272392297</v>
+        <v>0.205312290693179</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4441728269835643</v>
+        <v>0.01740743409719769</v>
       </c>
       <c r="J18">
-        <v>0.07701886567767247</v>
+        <v>0.1615860843962125</v>
       </c>
       <c r="K18">
-        <v>1.3049582834511</v>
+        <v>0.09102498040994966</v>
       </c>
       <c r="L18">
-        <v>0.3519581427587468</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8273497909062124</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.004331271550399</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1.09970520810046</v>
+      </c>
+      <c r="Q18">
+        <v>0.7252982146232654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.513284022770137</v>
+        <v>2.738675131622074</v>
       </c>
       <c r="C19">
-        <v>0.09990704632183878</v>
+        <v>0.7728248049529327</v>
       </c>
       <c r="D19">
-        <v>0.142963843979075</v>
+        <v>0.1045338587215099</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8505313947628395</v>
+        <v>0.3313007385231614</v>
       </c>
       <c r="G19">
-        <v>0.0008116855961770625</v>
+        <v>0.2035795814450196</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4441053791992609</v>
+        <v>0.0172833904743932</v>
       </c>
       <c r="J19">
-        <v>0.07694723988486984</v>
+        <v>0.1611019925288346</v>
       </c>
       <c r="K19">
-        <v>1.293649076776319</v>
+        <v>0.09119221623935658</v>
       </c>
       <c r="L19">
-        <v>0.3494730790968674</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8306476053855425</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.001182926445409</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1.096579405675641</v>
+      </c>
+      <c r="Q19">
+        <v>0.7205897307849085</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.571993659668351</v>
+        <v>2.84231849462634</v>
       </c>
       <c r="C20">
-        <v>0.1020462889494169</v>
+        <v>0.7985342374889512</v>
       </c>
       <c r="D20">
-        <v>0.1475350837527429</v>
+        <v>0.1085184221584257</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8604183427753895</v>
+        <v>0.3411205054727375</v>
       </c>
       <c r="G20">
-        <v>0.0008104197304362757</v>
+        <v>0.2097615945952853</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4444680573512052</v>
+        <v>0.01833491495585537</v>
       </c>
       <c r="J20">
-        <v>0.07727665696322106</v>
+        <v>0.1624535348990648</v>
       </c>
       <c r="K20">
-        <v>1.344571109648257</v>
+        <v>0.08961799379318869</v>
       </c>
       <c r="L20">
-        <v>0.3606771679829279</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8158886654219737</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.015623344274331</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>1.115297393073178</v>
+      </c>
+      <c r="Q20">
+        <v>0.7366210386743148</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.770079316850939</v>
+        <v>3.192310906127034</v>
       </c>
       <c r="C21">
-        <v>0.1092430769152202</v>
+        <v>0.8832923172796541</v>
       </c>
       <c r="D21">
-        <v>0.1630150542197129</v>
+        <v>0.121794646993564</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8955087575718608</v>
+        <v>0.3755217693853936</v>
       </c>
       <c r="G21">
-        <v>0.000806241757395635</v>
+        <v>0.2317569547040605</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.446753974117442</v>
+        <v>0.02187927424839931</v>
       </c>
       <c r="J21">
-        <v>0.07851081166791118</v>
+        <v>0.1676945325175652</v>
       </c>
       <c r="K21">
-        <v>1.516230170126789</v>
+        <v>0.08504995040115837</v>
       </c>
       <c r="L21">
-        <v>0.3987078466718827</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7677592398394921</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.069077546045065</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>1.177570876782156</v>
+      </c>
+      <c r="Q21">
+        <v>0.7945381923653514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.900238315055475</v>
+        <v>3.42447368286463</v>
       </c>
       <c r="C22">
-        <v>0.1139567044273377</v>
+        <v>0.9359525515275777</v>
       </c>
       <c r="D22">
-        <v>0.1732292188762727</v>
+        <v>0.1302740027313263</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.919917715420155</v>
+        <v>0.3996485468145607</v>
       </c>
       <c r="G22">
-        <v>0.0008035654567340674</v>
+        <v>0.247589596205863</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4490838233521117</v>
+        <v>0.02410389362187271</v>
       </c>
       <c r="J22">
-        <v>0.07941637438422333</v>
+        <v>0.171916722954343</v>
       </c>
       <c r="K22">
-        <v>1.628911353365993</v>
+        <v>0.08287313820209263</v>
       </c>
       <c r="L22">
-        <v>0.4238744184432477</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.737429530507737</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.10790238653297</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>1.21640188533361</v>
+      </c>
+      <c r="Q22">
+        <v>0.8371430334580054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.830700743254539</v>
+        <v>3.304349569121257</v>
       </c>
       <c r="C23">
-        <v>0.1114398111068269</v>
+        <v>0.9050495673297689</v>
       </c>
       <c r="D23">
-        <v>0.1677683943678261</v>
+        <v>0.1255345034606563</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9067498751727783</v>
+        <v>0.3877064267037582</v>
       </c>
       <c r="G23">
-        <v>0.0008049890022989082</v>
+        <v>0.2400045848059733</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4477611848409353</v>
+        <v>0.0226713251415589</v>
       </c>
       <c r="J23">
-        <v>0.07892373477526249</v>
+        <v>0.1701023795892098</v>
       </c>
       <c r="K23">
-        <v>1.56872169222703</v>
+        <v>0.08446908660934405</v>
       </c>
       <c r="L23">
-        <v>0.4104125159642678</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7535115186739993</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.086811018614327</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>1.193027698269034</v>
+      </c>
+      <c r="Q23">
+        <v>0.8171585390546596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.568766684932655</v>
+        <v>2.842305149278843</v>
       </c>
       <c r="C24">
-        <v>0.1019287851517205</v>
+        <v>0.792901381128587</v>
       </c>
       <c r="D24">
-        <v>0.1472836137058238</v>
+        <v>0.1079781097110839</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8598685561061146</v>
+        <v>0.3420912659100495</v>
       </c>
       <c r="G24">
-        <v>0.0008104889586045827</v>
+        <v>0.2108117119149355</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4444442249259204</v>
+        <v>0.01790029789891801</v>
       </c>
       <c r="J24">
-        <v>0.0772580978317059</v>
+        <v>0.1630934490180636</v>
       </c>
       <c r="K24">
-        <v>1.341772746950767</v>
+        <v>0.0904161985590779</v>
       </c>
       <c r="L24">
-        <v>0.3600604964216529</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8166937638247624</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.014812293370426</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1.110389017244287</v>
+      </c>
+      <c r="Q24">
+        <v>0.7401826737393122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.288717720467872</v>
+        <v>2.341827102739842</v>
       </c>
       <c r="C25">
-        <v>0.09169263152936225</v>
+        <v>0.6724284142416082</v>
       </c>
       <c r="D25">
-        <v>0.1255614826022651</v>
+        <v>0.08911412063503121</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8151238924787947</v>
+        <v>0.2952514679518998</v>
       </c>
       <c r="G25">
-        <v>0.0008166657409452982</v>
+        <v>0.1812743935083958</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4441992305939984</v>
+        <v>0.01331579227866886</v>
       </c>
       <c r="J25">
-        <v>0.07586065886571447</v>
+        <v>0.156767569656509</v>
       </c>
       <c r="K25">
-        <v>1.098648960619983</v>
+        <v>0.0981387027327294</v>
       </c>
       <c r="L25">
-        <v>0.3069366596184722</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8894346711461552</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1.952516072602862</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1.024460274922319</v>
+      </c>
+      <c r="Q25">
+        <v>0.6638484228135439</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_34/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.98022727312852</v>
+        <v>1.956934061636105</v>
       </c>
       <c r="C2">
-        <v>0.5774028030875229</v>
+        <v>0.5856955463427198</v>
       </c>
       <c r="D2">
-        <v>0.07475965342466395</v>
+        <v>0.0761825608997313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.2648977637700938</v>
+        <v>0.2624297231027981</v>
       </c>
       <c r="G2">
-        <v>0.163156640467939</v>
+        <v>0.1485527760164302</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.009826165645093088</v>
+        <v>0.00913746104748725</v>
       </c>
       <c r="J2">
-        <v>0.1542030672447297</v>
+        <v>0.1978936837216025</v>
       </c>
       <c r="K2">
-        <v>0.1060049383777262</v>
+        <v>0.1063566832549494</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.08865338901068043</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.01143471844445187</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9577430848954123</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.6197022919799906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0.9753583830464976</v>
+      </c>
+      <c r="S2">
+        <v>0.6163913639460645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.728669218486317</v>
+        <v>1.713794859078774</v>
       </c>
       <c r="C3">
-        <v>0.5169173769909037</v>
+        <v>0.5192557579590584</v>
       </c>
       <c r="D3">
-        <v>0.06533689920308206</v>
+        <v>0.06629410465891539</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2438796206989409</v>
+        <v>0.2431837029650623</v>
       </c>
       <c r="G3">
-        <v>0.1503612702268384</v>
+        <v>0.1365298173175304</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.007927122167081357</v>
+        <v>0.007503693029518921</v>
       </c>
       <c r="J3">
-        <v>0.1523434716182734</v>
+        <v>0.1959288959531804</v>
       </c>
       <c r="K3">
-        <v>0.111247084139432</v>
+        <v>0.1118097034991745</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.09348729287958868</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.01182322172255956</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9174386171025333</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.5884184618225561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0.9289963196458189</v>
+      </c>
+      <c r="S3">
+        <v>0.589809043201214</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.573384059026466</v>
+        <v>1.563457435582109</v>
       </c>
       <c r="C4">
-        <v>0.4799129124953936</v>
+        <v>0.4787424468505037</v>
       </c>
       <c r="D4">
-        <v>0.05956296939099559</v>
+        <v>0.06024508990407895</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.2313524873423489</v>
+        <v>0.2316585500017467</v>
       </c>
       <c r="G4">
-        <v>0.1428036580224799</v>
+        <v>0.1294223010738378</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006851540789245103</v>
+        <v>0.00657906990947188</v>
       </c>
       <c r="J4">
-        <v>0.1514300068479031</v>
+        <v>0.194823862902652</v>
       </c>
       <c r="K4">
-        <v>0.1147132839202296</v>
+        <v>0.1153545212299374</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.09669944617946413</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.01246862324442355</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8934558587239394</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.5703143531837043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0.9014000207302075</v>
+      </c>
+      <c r="S4">
+        <v>0.5743263565474592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.50898596822222</v>
+        <v>1.50101884296393</v>
       </c>
       <c r="C5">
-        <v>0.4655334598382979</v>
+        <v>0.4629793207345756</v>
       </c>
       <c r="D5">
-        <v>0.05726402306860479</v>
+        <v>0.05783710448270085</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2260878686069532</v>
+        <v>0.2267805389678372</v>
       </c>
       <c r="G5">
-        <v>0.1395642502176315</v>
+        <v>0.1263624175923965</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.006484026446098134</v>
+        <v>0.0062834742313429</v>
       </c>
       <c r="J5">
-        <v>0.1509931233956294</v>
+        <v>0.194271813754078</v>
       </c>
       <c r="K5">
-        <v>0.116061137666712</v>
+        <v>0.1167231724798743</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.0979833015531355</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.01282311867634101</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8844602423145744</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.5624609303736889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0.8909648791937741</v>
+      </c>
+      <c r="S5">
+        <v>0.5674748918653023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.497165743769699</v>
+        <v>1.489517761036211</v>
       </c>
       <c r="C6">
-        <v>0.4639699153365768</v>
+        <v>0.4611999189112908</v>
       </c>
       <c r="D6">
-        <v>0.05694561969743717</v>
+        <v>0.05750118221143907</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2249142274183384</v>
+        <v>0.2256689134017194</v>
       </c>
       <c r="G6">
-        <v>0.1387494943998036</v>
+        <v>0.1255803127613575</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.006492607425893304</v>
+        <v>0.006321377816735918</v>
       </c>
       <c r="J6">
-        <v>0.150777243982489</v>
+        <v>0.1940271788411039</v>
       </c>
       <c r="K6">
-        <v>0.1161365636126312</v>
+        <v>0.116802844392768</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.09809534078418025</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.0128756368470293</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8837036258620259</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.5602693719958012</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0.8899782099319395</v>
+      </c>
+      <c r="S6">
+        <v>0.5654438330397227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.569462456870667</v>
+        <v>1.558499402642326</v>
       </c>
       <c r="C7">
-        <v>0.4819715238269566</v>
+        <v>0.4801553497484861</v>
       </c>
       <c r="D7">
-        <v>0.05970500590274952</v>
+        <v>0.06050925322774248</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2304480120445618</v>
+        <v>0.2301905148129464</v>
       </c>
       <c r="G7">
-        <v>0.1419913681788287</v>
+        <v>0.1307073035885651</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.007019614841988542</v>
+        <v>0.006787295958861961</v>
       </c>
       <c r="J7">
-        <v>0.1510235988311379</v>
+        <v>0.191342609944698</v>
       </c>
       <c r="K7">
-        <v>0.1143169421419845</v>
+        <v>0.1148347469012201</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.09635392696530154</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.01241463276958177</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8953305561607152</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.5677395161640106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0.9039859113091495</v>
+      </c>
+      <c r="S7">
+        <v>0.5701012256957085</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.889580387230097</v>
+        <v>1.865697399359561</v>
       </c>
       <c r="C8">
-        <v>0.5595292978134978</v>
+        <v>0.5635723023130765</v>
       </c>
       <c r="D8">
-        <v>0.07173887230683107</v>
+        <v>0.07341315728811537</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.2564633046684648</v>
+        <v>0.2527401611321096</v>
       </c>
       <c r="G8">
-        <v>0.1576603889353336</v>
+        <v>0.1503437396312393</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.009358618877700842</v>
+        <v>0.008799103277823406</v>
       </c>
       <c r="J8">
-        <v>0.1529845989888656</v>
+        <v>0.1867452021314548</v>
       </c>
       <c r="K8">
-        <v>0.1072170994389978</v>
+        <v>0.1072525515841534</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.08972046715195425</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.01129346322260405</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9463866843204727</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6054084973291367</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0.9643561468494397</v>
+      </c>
+      <c r="S8">
+        <v>0.5982823917758822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.516324686868813</v>
+        <v>2.469106632542093</v>
       </c>
       <c r="C9">
-        <v>0.7088027040400675</v>
+        <v>0.7278210525189763</v>
       </c>
       <c r="D9">
-        <v>0.09514350420118234</v>
+        <v>0.0981616631401323</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3122446241793995</v>
+        <v>0.3030556166207319</v>
       </c>
       <c r="G9">
-        <v>0.1923721608177615</v>
+        <v>0.1849625223587026</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0144892647746433</v>
+        <v>0.01312534070218074</v>
       </c>
       <c r="J9">
-        <v>0.1594576099247007</v>
+        <v>0.1900165989320826</v>
       </c>
       <c r="K9">
-        <v>0.09609309643743913</v>
+        <v>0.09519973253669711</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.07937338760588553</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.01256695599689373</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1.049208731199144</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.6931708492316773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>1.083614049401078</v>
+      </c>
+      <c r="S9">
+        <v>0.6712101182003352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.971342926852515</v>
+        <v>2.899387338987765</v>
       </c>
       <c r="C10">
-        <v>0.8207204798494558</v>
+        <v>0.8474448296205139</v>
       </c>
       <c r="D10">
-        <v>0.1125401946954554</v>
+        <v>0.1173526384089456</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.3551967711645787</v>
+        <v>0.3381566605365123</v>
       </c>
       <c r="G10">
-        <v>0.2194208692772222</v>
+        <v>0.2246376856066803</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.0189641152281661</v>
+        <v>0.01689805519491205</v>
       </c>
       <c r="J10">
-        <v>0.1653304655791672</v>
+        <v>0.1766801797583781</v>
       </c>
       <c r="K10">
-        <v>0.08913155082275459</v>
+        <v>0.08660374230250234</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07268034177071669</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.01516822010831298</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.130182868127818</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.7632321385913059</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>1.181708782361994</v>
+      </c>
+      <c r="S10">
+        <v>0.7191992963116149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.172352525654105</v>
+        <v>3.077555865862905</v>
       </c>
       <c r="C11">
-        <v>0.8757881276146691</v>
+        <v>0.8990637825588976</v>
       </c>
       <c r="D11">
-        <v>0.120780737022514</v>
+        <v>0.1277826673392042</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3739729287759062</v>
+        <v>0.3473741971309749</v>
       </c>
       <c r="G11">
-        <v>0.2309605548791467</v>
+        <v>0.2657858275056242</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.02146154375481224</v>
+        <v>0.01905634973716896</v>
       </c>
       <c r="J11">
-        <v>0.1676745417585153</v>
+        <v>0.1464489259624244</v>
       </c>
       <c r="K11">
-        <v>0.08566162610192229</v>
+        <v>0.08123769935064118</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06941106104060424</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.01594300858782738</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>1.17163866262095</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0.7927883005110345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>1.239426228049567</v>
+      </c>
+      <c r="S11">
+        <v>0.7215317687048781</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.251096797790808</v>
+        <v>3.14610346158554</v>
       </c>
       <c r="C12">
-        <v>0.8946597331659234</v>
+        <v>0.9156643394753416</v>
       </c>
       <c r="D12">
-        <v>0.1237520596940271</v>
+        <v>0.131763574956949</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.3819080904442345</v>
+        <v>0.3508990677498502</v>
       </c>
       <c r="G12">
-        <v>0.2360804859135897</v>
+        <v>0.2858056668801936</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.02227823023393238</v>
+        <v>0.01968579962269157</v>
       </c>
       <c r="J12">
-        <v>0.1689559079447349</v>
+        <v>0.1342685580851253</v>
       </c>
       <c r="K12">
-        <v>0.0847438249178829</v>
+        <v>0.07941462780600084</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06830199656371416</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.01634313139558508</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>1.185626227867075</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.8063944633528877</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.260637750082765</v>
+      </c>
+      <c r="S12">
+        <v>0.722558278268707</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.234695735611069</v>
+        <v>3.131961567541168</v>
       </c>
       <c r="C13">
-        <v>0.8901822899152307</v>
+        <v>0.9117075721172228</v>
       </c>
       <c r="D13">
-        <v>0.1230806124443689</v>
+        <v>0.130865099381765</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.3803415047759628</v>
+        <v>0.3503116367267296</v>
       </c>
       <c r="G13">
-        <v>0.2351092477662604</v>
+        <v>0.2814602845153047</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.02206696555132126</v>
+        <v>0.01950572267869521</v>
       </c>
       <c r="J13">
-        <v>0.1687469520610705</v>
+        <v>0.1369429345721755</v>
       </c>
       <c r="K13">
-        <v>0.08500787383073849</v>
+        <v>0.07986968947416173</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.06855730258384618</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.01628598313035745</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>1.182226645730381</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0.8038831729233493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1.255612272112785</v>
+      </c>
+      <c r="S13">
+        <v>0.7228300475787535</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.179067835930539</v>
+        <v>3.083460952749761</v>
       </c>
       <c r="C14">
-        <v>0.8771652335936722</v>
+        <v>0.9002681663495196</v>
       </c>
       <c r="D14">
-        <v>0.1210117989573263</v>
+        <v>0.1280925580945649</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.3746861329392246</v>
+        <v>0.3477380919095765</v>
       </c>
       <c r="G14">
-        <v>0.2314375085450493</v>
+        <v>0.2674142524919461</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.02151339138649178</v>
+        <v>0.01908888322878699</v>
       </c>
       <c r="J14">
-        <v>0.1678083766293028</v>
+        <v>0.145474175377359</v>
       </c>
       <c r="K14">
-        <v>0.08561427097138719</v>
+        <v>0.08111464482244557</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06932712181535372</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.01598817054562396</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1.172625013460149</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.7940853870478151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.240976382090622</v>
+      </c>
+      <c r="S14">
+        <v>0.7218286819772857</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.143892344210599</v>
+        <v>3.052459999854591</v>
       </c>
       <c r="C15">
-        <v>0.8700071166416024</v>
+        <v>0.8939780811568312</v>
       </c>
       <c r="D15">
-        <v>0.1198068599000379</v>
+        <v>0.1264829753289689</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.370945919021004</v>
+        <v>0.3457929079926103</v>
       </c>
       <c r="G15">
-        <v>0.2289332224819702</v>
+        <v>0.259044155467798</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.0212491529183394</v>
+        <v>0.01892650627642567</v>
       </c>
       <c r="J15">
-        <v>0.1671036118394014</v>
+        <v>0.1505338980525082</v>
       </c>
       <c r="K15">
-        <v>0.08585723871777518</v>
+        <v>0.08174769034819462</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06976437985825257</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.01574850839003084</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>1.167511165461818</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.7872706959946498</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.232961388161542</v>
+      </c>
+      <c r="S15">
+        <v>0.7201546799302463</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.949046235771334</v>
+        <v>2.878450310445942</v>
       </c>
       <c r="C16">
-        <v>0.8239159016113433</v>
+        <v>0.8509452054493352</v>
       </c>
       <c r="D16">
-        <v>0.1125194735402175</v>
+        <v>0.117225094636197</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.3515479325663478</v>
+        <v>0.3350844759934475</v>
       </c>
       <c r="G16">
-        <v>0.2164364061714963</v>
+        <v>0.2201303975131879</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01934959912248235</v>
+        <v>0.0174584994128022</v>
       </c>
       <c r="J16">
-        <v>0.1640331268102102</v>
+        <v>0.1774005431453958</v>
       </c>
       <c r="K16">
-        <v>0.08821687549634483</v>
+        <v>0.08591830765406527</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07253757460208643</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.01467665972964305</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>1.13374489216551</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.7541754086152253</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1.184577978176463</v>
+      </c>
+      <c r="S16">
+        <v>0.7118740845147187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.829354152626308</v>
+        <v>2.768967301038629</v>
       </c>
       <c r="C17">
-        <v>0.7956933374678954</v>
+        <v>0.8230579770923896</v>
       </c>
       <c r="D17">
-        <v>0.1080557929864767</v>
+        <v>0.1118565199885353</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.3398207469609105</v>
+        <v>0.3273670968406748</v>
       </c>
       <c r="G17">
-        <v>0.2089128497586117</v>
+        <v>0.2019970207652904</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01823419385484115</v>
+        <v>0.01658401581635616</v>
       </c>
       <c r="J17">
-        <v>0.1622384919613467</v>
+        <v>0.1899613103646161</v>
       </c>
       <c r="K17">
-        <v>0.08975849318563611</v>
+        <v>0.08830387569073395</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.07425556210421203</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.01399682160573512</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>1.11327593669283</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.7343598446335733</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.157005149368516</v>
+      </c>
+      <c r="S17">
+        <v>0.7034966628379351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.763209459857933</v>
+        <v>2.70777942350054</v>
       </c>
       <c r="C18">
-        <v>0.777422829367282</v>
+        <v>0.8043725772857897</v>
       </c>
       <c r="D18">
-        <v>0.1053342696521611</v>
+        <v>0.108716642452805</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3338721673216583</v>
+        <v>0.3232481361894699</v>
       </c>
       <c r="G18">
-        <v>0.205312290693179</v>
+        <v>0.1940999072816396</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01740743409719769</v>
+        <v>0.01583325000373303</v>
       </c>
       <c r="J18">
-        <v>0.1615860843962125</v>
+        <v>0.1956456117767758</v>
       </c>
       <c r="K18">
-        <v>0.09102498040994966</v>
+        <v>0.08992875955056334</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.0753654386260969</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01372833793307215</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>1.09970520810046</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0.7252982146232654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1.139934051269066</v>
+      </c>
+      <c r="S18">
+        <v>0.6996209404610312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.738675131622074</v>
+        <v>2.684786046337194</v>
       </c>
       <c r="C19">
-        <v>0.7728248049529327</v>
+        <v>0.7995943417944318</v>
       </c>
       <c r="D19">
-        <v>0.1045338587215099</v>
+        <v>0.1077940559411985</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3313007385231614</v>
+        <v>0.3212273882600556</v>
       </c>
       <c r="G19">
-        <v>0.2035795814450196</v>
+        <v>0.1912110056680305</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.0172833904743932</v>
+        <v>0.01577462456723655</v>
       </c>
       <c r="J19">
-        <v>0.1611019925288346</v>
+        <v>0.1969593311586308</v>
       </c>
       <c r="K19">
-        <v>0.09119221623935658</v>
+        <v>0.09022472814378979</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.07564771683505978</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.0135410756159402</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>1.096579405675641</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.7205897307849085</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.135771977889888</v>
+      </c>
+      <c r="S19">
+        <v>0.6964840444809965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.84231849462634</v>
+        <v>2.780937607690987</v>
       </c>
       <c r="C20">
-        <v>0.7985342374889512</v>
+        <v>0.8259147754670266</v>
       </c>
       <c r="D20">
-        <v>0.1085184221584257</v>
+        <v>0.1124042424836205</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.3411205054727375</v>
+        <v>0.3282875984745743</v>
       </c>
       <c r="G20">
-        <v>0.2097615945952853</v>
+        <v>0.2037823920783097</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01833491495585537</v>
+        <v>0.01665564803311526</v>
       </c>
       <c r="J20">
-        <v>0.1624535348990648</v>
+        <v>0.1888370127744921</v>
       </c>
       <c r="K20">
-        <v>0.08961799379318869</v>
+        <v>0.08808098750635196</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.07408161756439213</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.01407954571972425</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1.115297393073178</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0.7366210386743148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.159710899572275</v>
+      </c>
+      <c r="S20">
+        <v>0.7046756240799681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.192310906127034</v>
+        <v>3.09070015914358</v>
       </c>
       <c r="C21">
-        <v>0.8832923172796541</v>
+        <v>0.9034801512168258</v>
       </c>
       <c r="D21">
-        <v>0.121794646993564</v>
+        <v>0.1295614019605154</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.3755217693853936</v>
+        <v>0.3456487537198001</v>
       </c>
       <c r="G21">
-        <v>0.2317569547040605</v>
+        <v>0.2793412682753456</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.02187927424839931</v>
+        <v>0.0194449165667514</v>
       </c>
       <c r="J21">
-        <v>0.1676945325175652</v>
+        <v>0.1354625201281294</v>
       </c>
       <c r="K21">
-        <v>0.08504995040115837</v>
+        <v>0.08001474898331296</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.06887144222869956</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.01572678948556749</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1.177570876782156</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.7945381923653514</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.250367884712418</v>
+      </c>
+      <c r="S21">
+        <v>0.7139442378724965</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.42447368286463</v>
+        <v>3.294170900961092</v>
       </c>
       <c r="C22">
-        <v>0.9359525515275777</v>
+        <v>0.9502712576007468</v>
       </c>
       <c r="D22">
-        <v>0.1302740027313263</v>
+        <v>0.1408604921986694</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.3996485468145607</v>
+        <v>0.3574960411155388</v>
       </c>
       <c r="G22">
-        <v>0.247589596205863</v>
+        <v>0.3378316734614231</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02410389362187271</v>
+        <v>0.02106856133286872</v>
       </c>
       <c r="J22">
-        <v>0.171916722954343</v>
+        <v>0.1084841765260371</v>
       </c>
       <c r="K22">
-        <v>0.08287313820209263</v>
+        <v>0.0752790066731972</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.0659362152737355</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.01718327160309308</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>1.21640188533361</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0.8371430334580054</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>1.309476625941286</v>
+      </c>
+      <c r="S22">
+        <v>0.721581546919964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.304349569121257</v>
+        <v>3.192301907482658</v>
       </c>
       <c r="C23">
-        <v>0.9050495673297689</v>
+        <v>0.9242919921892963</v>
       </c>
       <c r="D23">
-        <v>0.1255345034606563</v>
+        <v>0.1342465355977254</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.3877064267037582</v>
+        <v>0.3536013148447381</v>
       </c>
       <c r="G23">
-        <v>0.2400045848059733</v>
+        <v>0.3005674230187907</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.0226713251415589</v>
+        <v>0.01991275547990146</v>
       </c>
       <c r="J23">
-        <v>0.1701023795892098</v>
+        <v>0.1265970598676844</v>
       </c>
       <c r="K23">
-        <v>0.08446908660934405</v>
+        <v>0.07846416999973194</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.06766873395734674</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.01671594333405757</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>1.193027698269034</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0.8171585390546596</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>1.272952228975029</v>
+      </c>
+      <c r="S23">
+        <v>0.7244572488103103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.842305149278843</v>
+        <v>2.781338452097998</v>
       </c>
       <c r="C24">
-        <v>0.792901381128587</v>
+        <v>0.8201392841461939</v>
       </c>
       <c r="D24">
-        <v>0.1079781097110839</v>
+        <v>0.1118188576649857</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.3420912659100495</v>
+        <v>0.3294030770340086</v>
       </c>
       <c r="G24">
-        <v>0.2108117119149355</v>
+        <v>0.2043999652134971</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01790029789891801</v>
+        <v>0.01612750985620703</v>
       </c>
       <c r="J24">
-        <v>0.1630934490180636</v>
+        <v>0.1900454586732749</v>
       </c>
       <c r="K24">
-        <v>0.0904161985590779</v>
+        <v>0.08884696477603704</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.07440741869792067</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.01431307227465162</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>1.110389017244287</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0.7401826737393122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.154366702997038</v>
+      </c>
+      <c r="S24">
+        <v>0.7086045582823459</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.341827102739842</v>
+        <v>2.302685573505698</v>
       </c>
       <c r="C25">
-        <v>0.6724284142416082</v>
+        <v>0.6883575244941085</v>
       </c>
       <c r="D25">
-        <v>0.08911412063503121</v>
+        <v>0.09158489744658027</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.2952514679518998</v>
+        <v>0.2884543876397956</v>
       </c>
       <c r="G25">
-        <v>0.1812743935083958</v>
+        <v>0.1708804393118726</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.01331579227866886</v>
+        <v>0.0122816439818747</v>
       </c>
       <c r="J25">
-        <v>0.156767569656509</v>
+        <v>0.1924817749987184</v>
       </c>
       <c r="K25">
-        <v>0.0981387027327294</v>
+        <v>0.09777008239655238</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.08173140504464271</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.01170863092829588</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,10 +1832,16 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>1.024460274922319</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>0.6638484228135439</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.053363988403206</v>
+      </c>
+      <c r="S25">
+        <v>0.6486026134391665</v>
       </c>
     </row>
   </sheetData>
